--- a/data/trans_orig/P5705-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P5705-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>314342</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>291464</v>
+        <v>293204</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>334281</v>
+        <v>335842</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6634820833083401</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6151932549593018</v>
+        <v>0.6188661282508817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7055681899844035</v>
+        <v>0.7088623369376996</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>193</v>
@@ -765,19 +765,19 @@
         <v>197607</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181124</v>
+        <v>181130</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>215537</v>
+        <v>214482</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6443416979184422</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5905946459410244</v>
+        <v>0.5906162192708515</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7028083562784969</v>
+        <v>0.6993673297170482</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>499</v>
@@ -786,19 +786,19 @@
         <v>511949</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>485870</v>
+        <v>484609</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>538477</v>
+        <v>537660</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6559608719065998</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6225456226258846</v>
+        <v>0.6209302394103892</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6899506092176838</v>
+        <v>0.6889041061468584</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>113922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>96474</v>
+        <v>95058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135565</v>
+        <v>132656</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2404563881781492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2036277723458599</v>
+        <v>0.2006382797375754</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2861368451512268</v>
+        <v>0.2799982307265451</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -836,19 +836,19 @@
         <v>82915</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>67423</v>
+        <v>68100</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97933</v>
+        <v>98446</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2703647414878816</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2198465053348307</v>
+        <v>0.2220540313063456</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3193342749978504</v>
+        <v>0.3210060226992051</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>190</v>
@@ -857,19 +857,19 @@
         <v>196838</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>173504</v>
+        <v>173686</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>222506</v>
+        <v>221387</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.252208870865314</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2223112925593667</v>
+        <v>0.2225438197682281</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2850965385702945</v>
+        <v>0.2836633052634749</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>32732</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22151</v>
+        <v>21549</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45388</v>
+        <v>46299</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06908700307125636</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0467536272149406</v>
+        <v>0.04548398878087636</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09580132140187118</v>
+        <v>0.09772259599965645</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -907,19 +907,19 @@
         <v>20145</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12671</v>
+        <v>12304</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30684</v>
+        <v>30309</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0656888286188678</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04131517166446431</v>
+        <v>0.04012073313577678</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1000532803129672</v>
+        <v>0.09882787412463631</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>48</v>
@@ -928,19 +928,19 @@
         <v>52877</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39475</v>
+        <v>38480</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>68307</v>
+        <v>67881</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0677516909594168</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05057943483025417</v>
+        <v>0.04930403973628331</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08752182444568235</v>
+        <v>0.0869758168840115</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>10109</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5183</v>
+        <v>4423</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18971</v>
+        <v>18636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02133610551728617</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01094029897296284</v>
+        <v>0.009334695327925351</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04004315301209888</v>
+        <v>0.03933582212104198</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -978,19 +978,19 @@
         <v>4782</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11371</v>
+        <v>11961</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01559117958580331</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00324876047344126</v>
+        <v>0.003244310818925036</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03707745067063187</v>
+        <v>0.0390026598134443</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -999,19 +999,19 @@
         <v>14890</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7649</v>
+        <v>8805</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25081</v>
+        <v>25161</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01907863778412194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00980119159237974</v>
+        <v>0.0112821326136554</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03213690093271469</v>
+        <v>0.0322388794101796</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11349</v>
+        <v>10787</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005638419924968151</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02395396838222422</v>
+        <v>0.02276830442656413</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6212</v>
+        <v>6185</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004013552389005053</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02025479269292477</v>
+        <v>0.02016858118576121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1070,19 +1070,19 @@
         <v>3902</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13031</v>
+        <v>10984</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004999928484547445</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001073989179914345</v>
+        <v>0.001070699183352751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01669690897336125</v>
+        <v>0.01407378850289714</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>235694</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>217103</v>
+        <v>215094</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>253431</v>
+        <v>253071</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6423332036717274</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5916687116182292</v>
+        <v>0.5861915474082614</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6906731126779657</v>
+        <v>0.6896911350999755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>240</v>
@@ -1195,19 +1195,19 @@
         <v>245742</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226737</v>
+        <v>227465</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>263168</v>
+        <v>263234</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6608364747695283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.609730417942321</v>
+        <v>0.6116882647301103</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7076987588670253</v>
+        <v>0.7078754831105375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>462</v>
@@ -1216,19 +1216,19 @@
         <v>481436</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>453552</v>
+        <v>455782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>507934</v>
+        <v>506189</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6516465843996431</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6139046868142576</v>
+        <v>0.6169231881033781</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.687513130988163</v>
+        <v>0.685150985690105</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>87365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>70849</v>
+        <v>73901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103283</v>
+        <v>107413</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.238093265799728</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1930841237732704</v>
+        <v>0.2014004295191597</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2814762058730639</v>
+        <v>0.2927306235941825</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>96</v>
@@ -1266,19 +1266,19 @@
         <v>97545</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>82105</v>
+        <v>80386</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116106</v>
+        <v>114889</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2623134927841681</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2207931223610661</v>
+        <v>0.21616891286274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3122260117716446</v>
+        <v>0.3089530634284845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>183</v>
@@ -1287,19 +1287,19 @@
         <v>184910</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>159578</v>
+        <v>161767</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>209718</v>
+        <v>210495</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2502842018796428</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2159963259546468</v>
+        <v>0.2189593122386646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2838640802662807</v>
+        <v>0.2849148168533322</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>34304</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24840</v>
+        <v>24301</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47924</v>
+        <v>46925</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09348756361336136</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06769701396629225</v>
+        <v>0.06622812926710375</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1306065367527019</v>
+        <v>0.1278839763980703</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -1337,19 +1337,19 @@
         <v>22039</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14182</v>
+        <v>13882</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32771</v>
+        <v>32501</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05926515778975545</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03813655240946859</v>
+        <v>0.03732978061768173</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08812704475001697</v>
+        <v>0.0874002630863894</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -1358,19 +1358,19 @@
         <v>56342</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42765</v>
+        <v>42798</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72380</v>
+        <v>71588</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07626216097099513</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0578851459390304</v>
+        <v>0.05792971077306569</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09797031507878165</v>
+        <v>0.09689777457064083</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>8025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3087</v>
+        <v>3537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15945</v>
+        <v>15892</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02186966476643565</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008413314663028549</v>
+        <v>0.009640016673349561</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04345378136933923</v>
+        <v>0.0433091065318789</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1408,19 +1408,19 @@
         <v>5744</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14684</v>
+        <v>13141</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01544688574978779</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005367317671687684</v>
+        <v>0.005398589455778162</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03948734036807438</v>
+        <v>0.03533858440319249</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1429,19 +1429,19 @@
         <v>13769</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6739</v>
+        <v>7785</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23196</v>
+        <v>24394</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01863684252667404</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009121795885529738</v>
+        <v>0.01053795686668327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03139722080604186</v>
+        <v>0.03301805744069668</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7475</v>
+        <v>8699</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004216302148747536</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0203727952472181</v>
+        <v>0.02370669112301628</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3980</v>
+        <v>4016</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002137988906760312</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01070352254392474</v>
+        <v>0.01079949025589898</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10116</v>
+        <v>8737</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003170210223044945</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01369254503783103</v>
+        <v>0.01182540456684875</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>324321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>299581</v>
+        <v>302163</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>345887</v>
+        <v>348147</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5979485689214531</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5523357935770317</v>
+        <v>0.5570956156506754</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6377102109555058</v>
+        <v>0.6418762364440963</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -1625,19 +1625,19 @@
         <v>98179</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85543</v>
+        <v>84732</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109874</v>
+        <v>110422</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5885950277036022</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5128396914632881</v>
+        <v>0.5079788165514606</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6587091526973632</v>
+        <v>0.6619958799071869</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>413</v>
@@ -1646,19 +1646,19 @@
         <v>422500</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>396285</v>
+        <v>395929</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>448458</v>
+        <v>449889</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5957486140246423</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5587851820963934</v>
+        <v>0.5582829270897228</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6323511362729964</v>
+        <v>0.634368726544554</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>147103</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>128094</v>
+        <v>125851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169231</v>
+        <v>168357</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2712140119851743</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2361667750834221</v>
+        <v>0.2320304808020257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3120098487412662</v>
+        <v>0.3103998913900636</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -1696,19 +1696,19 @@
         <v>50189</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39014</v>
+        <v>39462</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62045</v>
+        <v>62074</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3008922184541287</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.233896043377545</v>
+        <v>0.2365776151053619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3719663775476418</v>
+        <v>0.3721432221583503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>197</v>
@@ -1717,19 +1717,19 @@
         <v>197293</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>175345</v>
+        <v>173879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>222664</v>
+        <v>219544</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2781943325000752</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2472468097744534</v>
+        <v>0.2451797976960602</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3139694686250048</v>
+        <v>0.3095700436049482</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>49401</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37054</v>
+        <v>36948</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65078</v>
+        <v>65135</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09108112736665434</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06831598178687345</v>
+        <v>0.06812129600195199</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1199846327047213</v>
+        <v>0.1200885701996824</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1767,19 +1767,19 @@
         <v>14581</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8330</v>
+        <v>8656</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23886</v>
+        <v>23898</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08741709054780518</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04994117806668981</v>
+        <v>0.05189147005336409</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1431974686366971</v>
+        <v>0.1432743396098559</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -1788,19 +1788,19 @@
         <v>63983</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48595</v>
+        <v>49117</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>82639</v>
+        <v>80961</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0902193451224773</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06852198241974217</v>
+        <v>0.06925739952704776</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1165257346887177</v>
+        <v>0.114159782477432</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>20714</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12562</v>
+        <v>12960</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31392</v>
+        <v>32995</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03819086846286038</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02316068594483536</v>
+        <v>0.02389449617128899</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05787809023132681</v>
+        <v>0.06083335625400808</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1838,19 +1838,19 @@
         <v>3852</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>983</v>
+        <v>1097</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12287</v>
+        <v>10868</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02309566329446396</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005895498703267713</v>
+        <v>0.006578054772642269</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07366392036737994</v>
+        <v>0.06515708739282308</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -1859,19 +1859,19 @@
         <v>24567</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15288</v>
+        <v>16191</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36373</v>
+        <v>37453</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03464047297572674</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02155662995434589</v>
+        <v>0.02283034367945075</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05128784349719276</v>
+        <v>0.05281022741662366</v>
       </c>
     </row>
     <row r="20">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3800</v>
+        <v>4306</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001565423263857915</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007006633201564441</v>
+        <v>0.007938877021258301</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5813</v>
+        <v>5110</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001197235377078396</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008196818555000185</v>
+        <v>0.00720489841719135</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>703123</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>668850</v>
+        <v>666555</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>736873</v>
+        <v>736492</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5677971806048772</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5401211630943502</v>
+        <v>0.5382676930668817</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5950515365304752</v>
+        <v>0.5947438488537443</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>396</v>
@@ -2047,19 +2047,19 @@
         <v>406407</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>378722</v>
+        <v>380258</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>431276</v>
+        <v>436207</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5689699884675653</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5302108274227811</v>
+        <v>0.5323617886826046</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.603787048847773</v>
+        <v>0.6106910235521424</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1087</v>
@@ -2068,19 +2068,19 @@
         <v>1109530</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1066270</v>
+        <v>1062980</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1155425</v>
+        <v>1154430</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5682262039514654</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5460711998362</v>
+        <v>0.5443864597097697</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5917308505402068</v>
+        <v>0.591221242791464</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>368453</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>338541</v>
+        <v>338766</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>401174</v>
+        <v>402350</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2975389187713096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2733839356242687</v>
+        <v>0.273566124271869</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3239625898185207</v>
+        <v>0.3249123521215444</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>198</v>
@@ -2118,19 +2118,19 @@
         <v>203213</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>179658</v>
+        <v>177556</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>228862</v>
+        <v>228350</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2844990198378831</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2515218552590335</v>
+        <v>0.2485782507633968</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.320407361781818</v>
+        <v>0.319690795133661</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>561</v>
@@ -2139,19 +2139,19 @@
         <v>571666</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>531224</v>
+        <v>531032</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>615250</v>
+        <v>614577</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2927688099942688</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2720569781267198</v>
+        <v>0.271958751101219</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.31508971084587</v>
+        <v>0.314744909504459</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>130050</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>110708</v>
+        <v>109508</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>152937</v>
+        <v>152827</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1050203682451034</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08940085678375329</v>
+        <v>0.08843143480644743</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1235025196048897</v>
+        <v>0.1234132152789714</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>80</v>
@@ -2189,19 +2189,19 @@
         <v>83773</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>68054</v>
+        <v>68155</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>104013</v>
+        <v>103997</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1172822128152819</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09527581592001794</v>
+        <v>0.09541669373190868</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1456188522088343</v>
+        <v>0.1455952836681508</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>213</v>
@@ -2210,19 +2210,19 @@
         <v>213823</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>183533</v>
+        <v>185901</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>241456</v>
+        <v>239947</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1095058579490906</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09399304595348097</v>
+        <v>0.09520598120539059</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.123657485365999</v>
+        <v>0.1228848561843474</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>31186</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20923</v>
+        <v>21144</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42872</v>
+        <v>44372</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02518343609964964</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01689584468754718</v>
+        <v>0.017074384853637</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03462085316305123</v>
+        <v>0.03583225498505561</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -2260,19 +2260,19 @@
         <v>18012</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10739</v>
+        <v>10754</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28131</v>
+        <v>28369</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02521750499197198</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0150343739180404</v>
+        <v>0.01505618941368759</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03938357135624454</v>
+        <v>0.03971679705528453</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -2281,19 +2281,19 @@
         <v>49198</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36892</v>
+        <v>37149</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66048</v>
+        <v>64129</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0251958987976445</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01889335101008387</v>
+        <v>0.01902530648285885</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03382531786522007</v>
+        <v>0.03284247355969482</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>5523</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1899</v>
+        <v>1932</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13921</v>
+        <v>13028</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0044600962790602</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001533459461551408</v>
+        <v>0.001559822356749467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01124187956701604</v>
+        <v>0.01052091043142915</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2331,19 +2331,19 @@
         <v>2879</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8486</v>
+        <v>8059</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004031273887297694</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001214349123799802</v>
+        <v>0.001219099660510407</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01188068664923201</v>
+        <v>0.01128320311450638</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2352,19 +2352,19 @@
         <v>8403</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3906</v>
+        <v>3921</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17380</v>
+        <v>15991</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004303229307530654</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00200063434755098</v>
+        <v>0.002008117679446526</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008901086593354481</v>
+        <v>0.008189517124513714</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>207082</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>188474</v>
+        <v>186621</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>225513</v>
+        <v>224104</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5907247537089978</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5376457938523427</v>
+        <v>0.5323576106111616</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6433035933640768</v>
+        <v>0.6392847676723635</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>302</v>
@@ -2477,19 +2477,19 @@
         <v>316851</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>294032</v>
+        <v>292403</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>341167</v>
+        <v>342039</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5580753983166794</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5178834525166052</v>
+        <v>0.5150148008929473</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6009026186117402</v>
+        <v>0.6024394804635389</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>501</v>
@@ -2498,19 +2498,19 @@
         <v>523933</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>492961</v>
+        <v>490543</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>552074</v>
+        <v>553095</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5705389195254927</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5368116231770267</v>
+        <v>0.5341794772471009</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6011838510378449</v>
+        <v>0.6022950598332949</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>78358</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>64127</v>
+        <v>63002</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>94876</v>
+        <v>94794</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2235264713057372</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1829311092152241</v>
+        <v>0.1797206824563862</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2706444171935359</v>
+        <v>0.2704100951641306</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>152</v>
@@ -2548,19 +2548,19 @@
         <v>161456</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>139838</v>
+        <v>139866</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>183781</v>
+        <v>185076</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2843750076657706</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2462996300848656</v>
+        <v>0.2463484892729316</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3236964131439278</v>
+        <v>0.3259767064067522</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>230</v>
@@ -2569,19 +2569,19 @@
         <v>239814</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>213005</v>
+        <v>214018</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>267561</v>
+        <v>267916</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2611467688740499</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2319528086390986</v>
+        <v>0.2330561830261365</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2913622534279123</v>
+        <v>0.2917479804708059</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>45539</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>33302</v>
+        <v>33581</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>58886</v>
+        <v>59549</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1299041823401994</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09499720517060767</v>
+        <v>0.09579433460663901</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1679780451385934</v>
+        <v>0.1698705546669237</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -2619,19 +2619,19 @@
         <v>61954</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>49242</v>
+        <v>46676</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>80599</v>
+        <v>77082</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1091206266348137</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08673048588495791</v>
+        <v>0.0822105478505633</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1419612348121193</v>
+        <v>0.1357664726380672</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>102</v>
@@ -2640,19 +2640,19 @@
         <v>107493</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>87635</v>
+        <v>88808</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>129082</v>
+        <v>128145</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1170545133598659</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09543080044029015</v>
+        <v>0.09670779475127325</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1405642776296245</v>
+        <v>0.1395439523413896</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>18591</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11345</v>
+        <v>11388</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29167</v>
+        <v>29198</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05303258884740843</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03236365690074773</v>
+        <v>0.03248453217068383</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08320272365926813</v>
+        <v>0.08329112233877746</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>23</v>
@@ -2690,19 +2690,19 @@
         <v>24223</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16347</v>
+        <v>15663</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>35724</v>
+        <v>35217</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04266508586499784</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02879277525196808</v>
+        <v>0.02758702314659249</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06292201145058181</v>
+        <v>0.06202773501919998</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>41</v>
@@ -2711,19 +2711,19 @@
         <v>42814</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30802</v>
+        <v>31323</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>56873</v>
+        <v>58175</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04662276257104732</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03354212970381775</v>
+        <v>0.03410893993453002</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06193257310062008</v>
+        <v>0.0633495572671329</v>
       </c>
     </row>
     <row r="32">
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5120</v>
+        <v>5749</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002812003797657204</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01460411129282806</v>
+        <v>0.01639950529551746</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2761,19 +2761,19 @@
         <v>3272</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9069</v>
+        <v>10534</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005763881517738448</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001724895053818778</v>
+        <v>0.001734393727768697</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01597272529690927</v>
+        <v>0.01855310888054424</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -2782,19 +2782,19 @@
         <v>4258</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1082</v>
+        <v>1005</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10610</v>
+        <v>10776</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00463703566954409</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001178109846141294</v>
+        <v>0.001094824957229776</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.011553411577392</v>
+        <v>0.01173409040337864</v>
       </c>
     </row>
     <row r="33">
@@ -2886,19 +2886,19 @@
         <v>216682</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>200618</v>
+        <v>199599</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>230569</v>
+        <v>230834</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7266296880368185</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.672760902640788</v>
+        <v>0.66934376070945</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.773199306198239</v>
+        <v>0.7740886730199504</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>728</v>
@@ -2907,19 +2907,19 @@
         <v>729005</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>694525</v>
+        <v>694291</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>763277</v>
+        <v>765537</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5837832057994654</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5561713551159276</v>
+        <v>0.5559844592032765</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6112280188193657</v>
+        <v>0.6130376113933161</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>949</v>
@@ -2928,19 +2928,19 @@
         <v>945686</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>909397</v>
+        <v>905953</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>983724</v>
+        <v>984702</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6113190755236413</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5878606413790409</v>
+        <v>0.585634399461037</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6359081459940626</v>
+        <v>0.6365403146752787</v>
       </c>
     </row>
     <row r="35">
@@ -2957,19 +2957,19 @@
         <v>67653</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>53268</v>
+        <v>54441</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>82251</v>
+        <v>83726</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.226872104212043</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1786311541886484</v>
+        <v>0.1825660499761895</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2758230466984256</v>
+        <v>0.2807688442164205</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>311</v>
@@ -2978,19 +2978,19 @@
         <v>314359</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>285816</v>
+        <v>284758</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>347852</v>
+        <v>346845</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2517366113675028</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2288798906829274</v>
+        <v>0.2280326896383116</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2785581778624111</v>
+        <v>0.2777518070326515</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>381</v>
@@ -2999,19 +2999,19 @@
         <v>382012</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>348455</v>
+        <v>347277</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>416591</v>
+        <v>416137</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2469435928831488</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2252517801187778</v>
+        <v>0.2244900336841767</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2692963323077446</v>
+        <v>0.2690033661415298</v>
       </c>
     </row>
     <row r="36">
@@ -3028,19 +3028,19 @@
         <v>12104</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6647</v>
+        <v>6518</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20259</v>
+        <v>20802</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04058956039872781</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02229002729121551</v>
+        <v>0.02185686139186729</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06793613833292131</v>
+        <v>0.0697570344822751</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>145</v>
@@ -3049,19 +3049,19 @@
         <v>148403</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>126299</v>
+        <v>127397</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>173786</v>
+        <v>173356</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1188403101416463</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1011399097499266</v>
+        <v>0.102018649833503</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1391666249473036</v>
+        <v>0.1388224020685195</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>158</v>
@@ -3070,19 +3070,19 @@
         <v>160507</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>137320</v>
+        <v>138731</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>185173</v>
+        <v>184662</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.10375626734975</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08876749474383214</v>
+        <v>0.08968004346698935</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1197013648687106</v>
+        <v>0.1193708146711052</v>
       </c>
     </row>
     <row r="37">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6105</v>
+        <v>5346</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.005908647352410644</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02047359604413219</v>
+        <v>0.01792815698766578</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>50</v>
@@ -3120,19 +3120,19 @@
         <v>52825</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>39850</v>
+        <v>39892</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>68264</v>
+        <v>68410</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04230219606252379</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03191166470420327</v>
+        <v>0.03194534527805078</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05466568882018028</v>
+        <v>0.05478246641580271</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>52</v>
@@ -3141,19 +3141,19 @@
         <v>54587</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>41070</v>
+        <v>41357</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>71914</v>
+        <v>71957</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03528677642889926</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02654854290617942</v>
+        <v>0.02673421694583887</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0464875717690334</v>
+        <v>0.04651483352171719</v>
       </c>
     </row>
     <row r="38">
@@ -3186,16 +3186,16 @@
         <v>1068</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>9435</v>
+        <v>9747</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.00333767662886161</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0008553515436587378</v>
+        <v>0.0008553972979353627</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.007555546438762976</v>
+        <v>0.007805643852294823</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4</v>
@@ -3204,19 +3204,19 @@
         <v>4168</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1187</v>
+        <v>963</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>10003</v>
+        <v>10252</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.002694287814560608</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0007675968755738029</v>
+        <v>0.0006224774742062742</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.006465960498679929</v>
+        <v>0.006627239947717252</v>
       </c>
     </row>
     <row r="39">
@@ -3308,19 +3308,19 @@
         <v>2001243</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1943176</v>
+        <v>1941604</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2057329</v>
+        <v>2058018</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6119653079331094</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.594208906753203</v>
+        <v>0.5937280836905748</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6291159777654773</v>
+        <v>0.6293267974792152</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1955</v>
@@ -3329,19 +3329,19 @@
         <v>1993791</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1930735</v>
+        <v>1935051</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2047270</v>
+        <v>2047587</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5905517093709868</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5718749486653155</v>
+        <v>0.5731533746166138</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6063920823617537</v>
+        <v>0.6064859320939052</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3911</v>
@@ -3350,19 +3350,19 @@
         <v>3995033</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3910264</v>
+        <v>3916844</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4076861</v>
+        <v>4068123</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6010878158125528</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.588333581410142</v>
+        <v>0.5893235791893258</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6133994383738071</v>
+        <v>0.6120847286501133</v>
       </c>
     </row>
     <row r="41">
@@ -3379,19 +3379,19 @@
         <v>862855</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>813602</v>
+        <v>813539</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>920527</v>
+        <v>915916</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.263854737488624</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2487933745696233</v>
+        <v>0.2487741067650285</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2814904205366058</v>
+        <v>0.2800805031033198</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>888</v>
@@ -3400,19 +3400,19 @@
         <v>909678</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>857473</v>
+        <v>861892</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>962447</v>
+        <v>962742</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.269442489049817</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2539795888288118</v>
+        <v>0.2552885917697981</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2850723049004603</v>
+        <v>0.2851598859432306</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1742</v>
@@ -3421,19 +3421,19 @@
         <v>1772533</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1696157</v>
+        <v>1705711</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1842644</v>
+        <v>1852740</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2666931545534707</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2552017706818042</v>
+        <v>0.2566391761206512</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2772419885013721</v>
+        <v>0.2787609747137181</v>
       </c>
     </row>
     <row r="42">
@@ -3450,19 +3450,19 @@
         <v>304130</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>271721</v>
+        <v>270934</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>337848</v>
+        <v>339197</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0930006366381049</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08309023080104139</v>
+        <v>0.08284958458760489</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.103311446865041</v>
+        <v>0.1037240919978637</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>337</v>
@@ -3471,19 +3471,19 @@
         <v>350895</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>319782</v>
+        <v>318946</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>389825</v>
+        <v>388443</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1039336172934707</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09471805623913007</v>
+        <v>0.09447032894717874</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1154643336167817</v>
+        <v>0.1150549062793929</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>636</v>
@@ -3492,19 +3492,19 @@
         <v>655025</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>614150</v>
+        <v>611355</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>708176</v>
+        <v>709883</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09855427633056167</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09240429829581555</v>
+        <v>0.09198367903749585</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1065512654010244</v>
+        <v>0.1068080708685482</v>
       </c>
     </row>
     <row r="43">
@@ -3521,19 +3521,19 @@
         <v>90386</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>72792</v>
+        <v>72817</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>111155</v>
+        <v>110159</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02763934701309652</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02225920594272284</v>
+        <v>0.02226683128976978</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03399028950608633</v>
+        <v>0.0336856972797936</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>102</v>
@@ -3542,19 +3542,19 @@
         <v>109439</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>90608</v>
+        <v>88804</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>133843</v>
+        <v>131995</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03241540270745859</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02683761871394228</v>
+        <v>0.02630344759153672</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03964375796105805</v>
+        <v>0.03909622283503773</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>190</v>
@@ -3563,19 +3563,19 @@
         <v>199825</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>172606</v>
+        <v>171221</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>228374</v>
+        <v>230329</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0300654459255258</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02597014106816653</v>
+        <v>0.02576166162243439</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.034360846669552</v>
+        <v>0.03465503809630512</v>
       </c>
     </row>
     <row r="44">
@@ -3592,19 +3592,19 @@
         <v>11576</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>6293</v>
+        <v>5744</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>22313</v>
+        <v>21994</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.003539970927065172</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001924372167558371</v>
+        <v>0.001756588294176857</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.006823296909442065</v>
+        <v>0.006725553730246757</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>12</v>
@@ -3613,19 +3613,19 @@
         <v>12346</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>6552</v>
+        <v>6006</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>21228</v>
+        <v>19784</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.003656781578266871</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.001940817331617276</v>
+        <v>0.001779003439997317</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.006287715355457792</v>
+        <v>0.005860064899799604</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>22</v>
@@ -3634,19 +3634,19 @@
         <v>23922</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>15652</v>
+        <v>15147</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>35289</v>
+        <v>37020</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.003599307377889046</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.002355020408817007</v>
+        <v>0.002278977642813592</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.005309540743567468</v>
+        <v>0.005569970692829008</v>
       </c>
     </row>
     <row r="45">
@@ -3980,19 +3980,19 @@
         <v>302443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>282260</v>
+        <v>279648</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>321501</v>
+        <v>321912</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6934170939875277</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6471437001698631</v>
+        <v>0.6411557302910661</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7371128905651632</v>
+        <v>0.7380553851114177</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>195</v>
@@ -4001,19 +4001,19 @@
         <v>217204</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>197972</v>
+        <v>199277</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>233724</v>
+        <v>233976</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.69329221672775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6319067531309372</v>
+        <v>0.6360721587341636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7460228965378715</v>
+        <v>0.7468269058915949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>476</v>
@@ -4022,19 +4022,19 @@
         <v>519646</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>491729</v>
+        <v>492543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>543722</v>
+        <v>545535</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6933648918377471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6561140298185913</v>
+        <v>0.657200489680608</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7254887745037456</v>
+        <v>0.7279079113023263</v>
       </c>
     </row>
     <row r="5">
@@ -4051,19 +4051,19 @@
         <v>97969</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>80469</v>
+        <v>81306</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118264</v>
+        <v>116343</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2246158361149005</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1844930943433156</v>
+        <v>0.1864113704061431</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2711461413118382</v>
+        <v>0.2667420682251821</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -4072,19 +4072,19 @@
         <v>84022</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68444</v>
+        <v>67772</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102262</v>
+        <v>101161</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2681883230410688</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2184658601351616</v>
+        <v>0.2163207822254248</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3264104732423022</v>
+        <v>0.322897124098446</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>165</v>
@@ -4093,19 +4093,19 @@
         <v>181991</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>158921</v>
+        <v>158050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>209994</v>
+        <v>207624</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2428303412448242</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2120490797108276</v>
+        <v>0.2108858381973095</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2801950687011845</v>
+        <v>0.2770325593333648</v>
       </c>
     </row>
     <row r="6">
@@ -4122,19 +4122,19 @@
         <v>21797</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14690</v>
+        <v>14272</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31037</v>
+        <v>32440</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04997439501953736</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03367965151479881</v>
+        <v>0.03272209858933983</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07115868791534757</v>
+        <v>0.0743761537096886</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -4143,19 +4143,19 @@
         <v>11109</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5532</v>
+        <v>5680</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19379</v>
+        <v>19882</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03545868949660735</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01765605153138882</v>
+        <v>0.01813016337250616</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06185668417381386</v>
+        <v>0.06346260670304282</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -4164,19 +4164,19 @@
         <v>32906</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23232</v>
+        <v>23415</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>46426</v>
+        <v>46104</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04390642848001256</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03099881016721649</v>
+        <v>0.0312431127382417</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06194665556680452</v>
+        <v>0.0615163386474829</v>
       </c>
     </row>
     <row r="7">
@@ -4193,19 +4193,19 @@
         <v>11065</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5787</v>
+        <v>5124</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19946</v>
+        <v>19986</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02536806189391351</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01326831911476066</v>
+        <v>0.01174883566654729</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04573040996898754</v>
+        <v>0.04582175260609712</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5500</v>
+        <v>4792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003060770734573961</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01755499296184378</v>
+        <v>0.01529406214678224</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4235,19 +4235,19 @@
         <v>12024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6020</v>
+        <v>5878</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20633</v>
+        <v>20754</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01604299697519593</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008032888323449869</v>
+        <v>0.007843260149335441</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02753011648202342</v>
+        <v>0.02769207330339165</v>
       </c>
     </row>
     <row r="8">
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12518</v>
+        <v>12367</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006624612984121014</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02870097677113127</v>
+        <v>0.02835316408624803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10514</v>
+        <v>11882</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003855341462220243</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01402873174302859</v>
+        <v>0.01585361290071565</v>
       </c>
     </row>
     <row r="9">
@@ -4402,19 +4402,19 @@
         <v>284314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>263260</v>
+        <v>262902</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>304873</v>
+        <v>304304</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6809804521185915</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6305519703879094</v>
+        <v>0.6296953005920947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7302224912391257</v>
+        <v>0.7288589664787873</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>203</v>
@@ -4423,19 +4423,19 @@
         <v>226078</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>208685</v>
+        <v>207894</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>244434</v>
+        <v>243641</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6709117559335314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6192939685696032</v>
+        <v>0.6169467382405119</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7253850775477607</v>
+        <v>0.7230317422533832</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>461</v>
@@ -4444,19 +4444,19 @@
         <v>510393</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>481581</v>
+        <v>482752</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>538747</v>
+        <v>539286</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.676483486188341</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6382966778617297</v>
+        <v>0.6398476279290793</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7140649039727779</v>
+        <v>0.71477983195988</v>
       </c>
     </row>
     <row r="11">
@@ -4473,19 +4473,19 @@
         <v>97140</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78168</v>
+        <v>80123</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>115495</v>
+        <v>116430</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2326662953641644</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1872266439425836</v>
+        <v>0.191907140776639</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2766289393703588</v>
+        <v>0.2788695125078385</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>79</v>
@@ -4494,19 +4494,19 @@
         <v>87165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69442</v>
+        <v>71324</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>104274</v>
+        <v>104543</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2586701524472039</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2060776925885228</v>
+        <v>0.2116619190581925</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3094437088366213</v>
+        <v>0.310241066690043</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>165</v>
@@ -4515,19 +4515,19 @@
         <v>184304</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>160561</v>
+        <v>158489</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>210606</v>
+        <v>209255</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2442803571263065</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2128099306229392</v>
+        <v>0.2100636417428435</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2791413781382813</v>
+        <v>0.2773509203495211</v>
       </c>
     </row>
     <row r="12">
@@ -4544,19 +4544,19 @@
         <v>32085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21141</v>
+        <v>21768</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44808</v>
+        <v>46179</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07684891001467048</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05063585768470374</v>
+        <v>0.05213726878393198</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1073237449316441</v>
+        <v>0.1106073625891331</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -4565,19 +4565,19 @@
         <v>17478</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10753</v>
+        <v>10497</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28464</v>
+        <v>28096</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05186849596720213</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03190940870681814</v>
+        <v>0.0311509110971254</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08447028989318089</v>
+        <v>0.08337889737536569</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -4586,19 +4586,19 @@
         <v>49563</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35682</v>
+        <v>36506</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65938</v>
+        <v>66560</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0656919470047328</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04729377075308586</v>
+        <v>0.04838526093734243</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08739517350374525</v>
+        <v>0.08822040846193062</v>
       </c>
     </row>
     <row r="13">
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6002</v>
+        <v>5714</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00426777092375405</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01437495436741008</v>
+        <v>0.01368679550546525</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -4636,19 +4636,19 @@
         <v>3109</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8649</v>
+        <v>9320</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009226707759957856</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002884866177326891</v>
+        <v>0.002878272043045855</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02566568685544223</v>
+        <v>0.02765903949500402</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -4657,19 +4657,19 @@
         <v>4891</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1808</v>
+        <v>1886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10959</v>
+        <v>12162</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006482573078154303</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002396728298158817</v>
+        <v>0.002500264210283135</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.014525539368782</v>
+        <v>0.0161201576277164</v>
       </c>
     </row>
     <row r="14">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10891</v>
+        <v>10771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005236571578819516</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02608681760613133</v>
+        <v>0.02579852967762665</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4707,19 +4707,19 @@
         <v>3142</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8418</v>
+        <v>8423</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009322887892104692</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002910619112593959</v>
+        <v>0.002904498800722046</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02498101913658619</v>
+        <v>0.02499735766665777</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -4728,19 +4728,19 @@
         <v>5328</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1092</v>
+        <v>1958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13811</v>
+        <v>14692</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007061636602465433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001446802176119854</v>
+        <v>0.002595458420316501</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01830512079885117</v>
+        <v>0.01947359421314283</v>
       </c>
     </row>
     <row r="15">
@@ -4832,19 +4832,19 @@
         <v>428441</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>405019</v>
+        <v>405411</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>452786</v>
+        <v>453217</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6806973692660666</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6434846885414627</v>
+        <v>0.6441083057869714</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7193758743130335</v>
+        <v>0.7200609254749274</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -4853,19 +4853,19 @@
         <v>172196</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>155571</v>
+        <v>156231</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186434</v>
+        <v>186039</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6619650264873194</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5980543337558871</v>
+        <v>0.6005908725924031</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.716697305881235</v>
+        <v>0.7151783716432005</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>563</v>
@@ -4874,19 +4874,19 @@
         <v>600637</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>569923</v>
+        <v>573360</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>627413</v>
+        <v>627651</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6752194701608794</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6406906281582404</v>
+        <v>0.6445549359677711</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7053202280782823</v>
+        <v>0.7055870668095703</v>
       </c>
     </row>
     <row r="17">
@@ -4903,19 +4903,19 @@
         <v>149309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>127300</v>
+        <v>127785</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>172578</v>
+        <v>171620</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2372181714744703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2022511087724654</v>
+        <v>0.2030214072186659</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.274187491379051</v>
+        <v>0.2726655018440673</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>66</v>
@@ -4924,19 +4924,19 @@
         <v>70325</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>56997</v>
+        <v>55379</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>86209</v>
+        <v>85241</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2703468616419821</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2191104687866277</v>
+        <v>0.212888778393726</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3314083693270362</v>
+        <v>0.3276866304277547</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>207</v>
@@ -4945,19 +4945,19 @@
         <v>219634</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>193776</v>
+        <v>195981</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>247033</v>
+        <v>246336</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2469059945283241</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2178372511298827</v>
+        <v>0.2203162853191056</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2777079828384384</v>
+        <v>0.2769236642975056</v>
       </c>
     </row>
     <row r="18">
@@ -4974,19 +4974,19 @@
         <v>44719</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33789</v>
+        <v>32184</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61493</v>
+        <v>60278</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07104800216333816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05368364900419537</v>
+        <v>0.05113398093985288</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09769841233928848</v>
+        <v>0.09576870541666217</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -4995,19 +4995,19 @@
         <v>12269</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6257</v>
+        <v>6435</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20726</v>
+        <v>20858</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04716435771009248</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02405311914236874</v>
+        <v>0.02473891233994693</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07967479682723186</v>
+        <v>0.08018499506290089</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>54</v>
@@ -5016,19 +5016,19 @@
         <v>56987</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>43064</v>
+        <v>43299</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72311</v>
+        <v>73002</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06406370788021833</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04841138186985623</v>
+        <v>0.04867579886416668</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08128963201666824</v>
+        <v>0.08206638050749449</v>
       </c>
     </row>
     <row r="19">
@@ -5045,19 +5045,19 @@
         <v>5149</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1028</v>
+        <v>1892</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12877</v>
+        <v>14564</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008179861075739966</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001633993419845233</v>
+        <v>0.003006023527849317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02045811877993062</v>
+        <v>0.02313826353743957</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -5066,19 +5066,19 @@
         <v>4383</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1241</v>
+        <v>1106</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10273</v>
+        <v>10975</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01684830210380869</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004769668920860304</v>
+        <v>0.004251696928145038</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03949282898885211</v>
+        <v>0.04218962834124933</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -5087,19 +5087,19 @@
         <v>9531</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4201</v>
+        <v>4955</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18745</v>
+        <v>20492</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01071477333481416</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004722851918924343</v>
+        <v>0.005570294868377491</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02107265201535493</v>
+        <v>0.02303656977157622</v>
       </c>
     </row>
     <row r="20">
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6071</v>
+        <v>5866</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002856596020384972</v>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009646014899028818</v>
+        <v>0.009319601906118094</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4875</v>
+        <v>5680</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003675452056797277</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01873999498569978</v>
+        <v>0.0218363515022666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -5158,19 +5158,19 @@
         <v>2754</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8423</v>
+        <v>7840</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00309605409576406</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0008705989919638307</v>
+        <v>0.0008599827218394506</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009468847201383426</v>
+        <v>0.008813807779196827</v>
       </c>
     </row>
     <row r="21">
@@ -5262,19 +5262,19 @@
         <v>744788</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>710724</v>
+        <v>708596</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>774588</v>
+        <v>776210</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6458346283877425</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6162961402997149</v>
+        <v>0.6144512512122462</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6716749798943823</v>
+        <v>0.6730818893880077</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>457</v>
@@ -5283,19 +5283,19 @@
         <v>488638</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>460115</v>
+        <v>460007</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>516216</v>
+        <v>517228</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6382284686366838</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.60097384775873</v>
+        <v>0.6008327184242002</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6742493147832498</v>
+        <v>0.675571222779683</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1153</v>
@@ -5304,19 +5304,19 @@
         <v>1233426</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1187021</v>
+        <v>1188786</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1274380</v>
+        <v>1276905</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6427997674040279</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6186155459926651</v>
+        <v>0.6195357143307682</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6641429168913283</v>
+        <v>0.6654585824445488</v>
       </c>
     </row>
     <row r="23">
@@ -5333,19 +5333,19 @@
         <v>279303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>252606</v>
+        <v>251089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>313025</v>
+        <v>308847</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2421943025002289</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2190445270634121</v>
+        <v>0.2177293393183542</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2714361760444487</v>
+        <v>0.2678135051183865</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>182</v>
@@ -5354,19 +5354,19 @@
         <v>198566</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>173237</v>
+        <v>175670</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>223448</v>
+        <v>224200</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2593549337933379</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2262712434794557</v>
+        <v>0.2294494278145754</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2918536424920171</v>
+        <v>0.2928356774436542</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>445</v>
@@ -5375,19 +5375,19 @@
         <v>477869</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>439113</v>
+        <v>437955</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>517804</v>
+        <v>522248</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2490414017029665</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2288438567697061</v>
+        <v>0.2282399877803455</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2698536917421168</v>
+        <v>0.2721695779294837</v>
       </c>
     </row>
     <row r="24">
@@ -5404,19 +5404,19 @@
         <v>99062</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>79814</v>
+        <v>79996</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>118904</v>
+        <v>122957</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08590068724516679</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0692095583351358</v>
+        <v>0.06936781066561573</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.103106677338306</v>
+        <v>0.1066211623296283</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>51</v>
@@ -5425,19 +5425,19 @@
         <v>54989</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>41218</v>
+        <v>40660</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71052</v>
+        <v>71704</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07182382286668534</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0538361941778252</v>
+        <v>0.05310817395829349</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0928038392559621</v>
+        <v>0.09365471199069282</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>140</v>
@@ -5446,19 +5446,19 @@
         <v>154052</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>130467</v>
+        <v>130724</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>179599</v>
+        <v>181109</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08028401235619287</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06799271467165174</v>
+        <v>0.06812654808761942</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09359807174841006</v>
+        <v>0.0943851669721231</v>
       </c>
     </row>
     <row r="25">
@@ -5475,19 +5475,19 @@
         <v>20887</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13202</v>
+        <v>13442</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31422</v>
+        <v>31472</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0181120942249899</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01144825900968898</v>
+        <v>0.01165645281065138</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02724749092144053</v>
+        <v>0.02729042304276225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -5496,19 +5496,19 @@
         <v>18035</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10220</v>
+        <v>10205</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28817</v>
+        <v>29287</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0235561662591398</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01334858842166749</v>
+        <v>0.01332894727299026</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03763961744803029</v>
+        <v>0.038252865258061</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -5517,19 +5517,19 @@
         <v>38922</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26495</v>
+        <v>27588</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52920</v>
+        <v>52493</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02028428128780747</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01380770211816153</v>
+        <v>0.01437746870944132</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02757926499505286</v>
+        <v>0.02735688703259509</v>
       </c>
     </row>
     <row r="26">
@@ -5546,19 +5546,19 @@
         <v>9178</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4227</v>
+        <v>4519</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16531</v>
+        <v>16970</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007958287641871925</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003665418425666742</v>
+        <v>0.003918408482027556</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01433470894250333</v>
+        <v>0.01471511377734871</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -5567,19 +5567,19 @@
         <v>5387</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2041</v>
+        <v>2020</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12282</v>
+        <v>12578</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007036608444153206</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002665970080331874</v>
+        <v>0.002638336022273288</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01604232227323562</v>
+        <v>0.01642866921497194</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -5588,19 +5588,19 @@
         <v>14565</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7099</v>
+        <v>7985</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23388</v>
+        <v>23807</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007590537249005328</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00369985620606301</v>
+        <v>0.004161309364835881</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01218854174103555</v>
+        <v>0.01240715092475978</v>
       </c>
     </row>
     <row r="27">
@@ -5692,19 +5692,19 @@
         <v>300953</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>278895</v>
+        <v>275031</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>322701</v>
+        <v>322866</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.593082612786599</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5496134252277126</v>
+        <v>0.5419999086106317</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6359421536861269</v>
+        <v>0.6362662867888121</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>427</v>
@@ -5713,19 +5713,19 @@
         <v>461865</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>434758</v>
+        <v>434572</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>487888</v>
+        <v>488438</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6082529982989611</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5725553905270144</v>
+        <v>0.572309761077239</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6425249228319554</v>
+        <v>0.6432485494506368</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>717</v>
@@ -5734,19 +5734,19 @@
         <v>762817</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>728019</v>
+        <v>728667</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>798971</v>
+        <v>802499</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6021760895179055</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.574705654754039</v>
+        <v>0.5752177640214292</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6307162385740179</v>
+        <v>0.6335010948715064</v>
       </c>
     </row>
     <row r="29">
@@ -5763,19 +5763,19 @@
         <v>151909</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>129318</v>
+        <v>132442</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>171903</v>
+        <v>176257</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2993655659132663</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2548455495137216</v>
+        <v>0.2610018635557791</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3387657206457335</v>
+        <v>0.3473478003152446</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>206</v>
@@ -5784,19 +5784,19 @@
         <v>222105</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>196528</v>
+        <v>198915</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>247587</v>
+        <v>249840</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2925012480476415</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.258817512686648</v>
+        <v>0.2619611006847266</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3260603560278603</v>
+        <v>0.3290272467516068</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>348</v>
@@ -5805,19 +5805,19 @@
         <v>374014</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>340923</v>
+        <v>336130</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>407057</v>
+        <v>405535</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2952509364770871</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2691285920415855</v>
+        <v>0.2653445719667686</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3213349347659336</v>
+        <v>0.3201334046250524</v>
       </c>
     </row>
     <row r="30">
@@ -5834,19 +5834,19 @@
         <v>49122</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36805</v>
+        <v>36162</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>63356</v>
+        <v>64087</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09680332761019819</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07253110913609521</v>
+        <v>0.07126330009555676</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1248540630229133</v>
+        <v>0.1262956196950145</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>59</v>
@@ -5855,19 +5855,19 @@
         <v>66140</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>51248</v>
+        <v>51225</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84427</v>
+        <v>84760</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0871030001889152</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06749052549517891</v>
+        <v>0.06746107713456244</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1111866069381119</v>
+        <v>0.1116248581345575</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>106</v>
@@ -5876,19 +5876,19 @@
         <v>115262</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>96178</v>
+        <v>94735</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>136799</v>
+        <v>135530</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09098872905437302</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07592376036978975</v>
+        <v>0.07478486565617468</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1079904658995165</v>
+        <v>0.1069885547169323</v>
       </c>
     </row>
     <row r="31">
@@ -5905,19 +5905,19 @@
         <v>5454</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12252</v>
+        <v>11717</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0107484936899365</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003936185196103896</v>
+        <v>0.003956261293524162</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02414519039349446</v>
+        <v>0.02309025388604481</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -5926,19 +5926,19 @@
         <v>5293</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1964</v>
+        <v>1985</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11525</v>
+        <v>11615</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.00697025177037859</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002586522871822458</v>
+        <v>0.00261386233682899</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01517725701910533</v>
+        <v>0.01529619849203739</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -5947,19 +5947,19 @@
         <v>10747</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5429</v>
+        <v>5412</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19613</v>
+        <v>19104</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.008483728898511156</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.004285904361867862</v>
+        <v>0.00427225790229449</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01548263811356567</v>
+        <v>0.01508101611027768</v>
       </c>
     </row>
     <row r="32">
@@ -5989,19 +5989,19 @@
         <v>3928</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9011</v>
+        <v>9485</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005172501694103722</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001309942958602897</v>
+        <v>0.001304323474901565</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01186681646147967</v>
+        <v>0.01249066843671875</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -6010,19 +6010,19 @@
         <v>3928</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8976</v>
+        <v>9717</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.003100516052123198</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0007763244459041931</v>
+        <v>0.0007815154832043025</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007085661065866634</v>
+        <v>0.007670988521382735</v>
       </c>
     </row>
     <row r="33">
@@ -6114,19 +6114,19 @@
         <v>189913</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>174343</v>
+        <v>174790</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>204656</v>
+        <v>204024</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7116000880687262</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6532602044663179</v>
+        <v>0.6549336327181174</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7668419417995043</v>
+        <v>0.7644711722504346</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>643</v>
@@ -6135,19 +6135,19 @@
         <v>681643</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>647067</v>
+        <v>648958</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>712007</v>
+        <v>714667</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6167177583434508</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5854346173611169</v>
+        <v>0.587145441440127</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6441891626741346</v>
+        <v>0.6465957675467746</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>832</v>
@@ -6156,19 +6156,19 @@
         <v>871557</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>835486</v>
+        <v>836175</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>906146</v>
+        <v>906594</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6351721771874547</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6088844130758092</v>
+        <v>0.609386684147448</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6603798543568967</v>
+        <v>0.6607070403333657</v>
       </c>
     </row>
     <row r="35">
@@ -6185,19 +6185,19 @@
         <v>61626</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>48559</v>
+        <v>48589</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>77156</v>
+        <v>76050</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2309099962114893</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.181948687893437</v>
+        <v>0.1820634722427523</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2891023309415109</v>
+        <v>0.2849575926817953</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>283</v>
@@ -6206,19 +6206,19 @@
         <v>301170</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>273872</v>
+        <v>272503</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>332513</v>
+        <v>334089</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2724836126116773</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2477858523259485</v>
+        <v>0.2465470958019388</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3008412786646764</v>
+        <v>0.3022678048943563</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>344</v>
@@ -6227,19 +6227,19 @@
         <v>362795</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>332799</v>
+        <v>332136</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>396290</v>
+        <v>396709</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2643976293508273</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2425370098823422</v>
+        <v>0.2420537187134197</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2888076343214393</v>
+        <v>0.2891129678743815</v>
       </c>
     </row>
     <row r="36">
@@ -6256,19 +6256,19 @@
         <v>14338</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7724</v>
+        <v>8542</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23511</v>
+        <v>23006</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05372274357565799</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02894020048437956</v>
+        <v>0.03200709470391085</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08809595764576318</v>
+        <v>0.08620231537017095</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>91</v>
@@ -6277,19 +6277,19 @@
         <v>97938</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>79860</v>
+        <v>79714</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>119456</v>
+        <v>117100</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08860933274948316</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07225351340510526</v>
+        <v>0.07212179309946266</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.108077973679978</v>
+        <v>0.105946601654218</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>105</v>
@@ -6298,19 +6298,19 @@
         <v>112275</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>90755</v>
+        <v>91822</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>130880</v>
+        <v>135208</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0818239625913455</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06614036628420729</v>
+        <v>0.0669181108452927</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09538225201095323</v>
+        <v>0.09853652055106588</v>
       </c>
     </row>
     <row r="37">
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5041</v>
+        <v>4411</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0037671721441265</v>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01888798126852441</v>
+        <v>0.01652894962596892</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -6348,19 +6348,19 @@
         <v>20535</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12100</v>
+        <v>12461</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>30149</v>
+        <v>31572</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01857942816117037</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0109472817097288</v>
+        <v>0.01127430483524475</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02727750623606958</v>
+        <v>0.02856509354213307</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>20</v>
@@ -6369,19 +6369,19 @@
         <v>21541</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14255</v>
+        <v>13602</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32564</v>
+        <v>32379</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01569847469644608</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01038909028154139</v>
+        <v>0.009912941569163718</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0237322616137183</v>
+        <v>0.02359688927700459</v>
       </c>
     </row>
     <row r="38">
@@ -6411,19 +6411,19 @@
         <v>3990</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>984</v>
+        <v>1033</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>9862</v>
+        <v>9091</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.003609868134218413</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0008898759375066359</v>
+        <v>0.0009344901605821751</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.008922531222939085</v>
+        <v>0.008224987343532693</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4</v>
@@ -6432,19 +6432,19 @@
         <v>3990</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>9962</v>
+        <v>9165</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.002907756173926366</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.000725408990446167</v>
+        <v>0.0007245558033524958</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.007259822137952327</v>
+        <v>0.006679184650843839</v>
       </c>
     </row>
     <row r="39">
@@ -6536,19 +6536,19 @@
         <v>2250852</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2189832</v>
+        <v>2196759</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2306341</v>
+        <v>2313515</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.6599533616062758</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6420620341651005</v>
+        <v>0.6440931661380975</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.676222659814506</v>
+        <v>0.6783263631757074</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2086</v>
@@ -6557,19 +6557,19 @@
         <v>2247624</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2188861</v>
+        <v>2189491</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2305453</v>
+        <v>2307566</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6348116845779345</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6182148517274554</v>
+        <v>0.6183925361888633</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6511444757592579</v>
+        <v>0.6517413275484571</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4202</v>
@@ -6578,19 +6578,19 @@
         <v>4498477</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4410938</v>
+        <v>4407628</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4578551</v>
+        <v>4576407</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6471474400106501</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6345541774761797</v>
+        <v>0.6340780040098757</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6586669002805146</v>
+        <v>0.6583584969384442</v>
       </c>
     </row>
     <row r="41">
@@ -6607,19 +6607,19 @@
         <v>837256</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>786581</v>
+        <v>782034</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>895172</v>
+        <v>887285</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2454846608440379</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2306267122372636</v>
+        <v>0.2292935913210145</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2624659229393892</v>
+        <v>0.2601532879165946</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>892</v>
@@ -6628,19 +6628,19 @@
         <v>963352</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>906326</v>
+        <v>911820</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1018308</v>
+        <v>1023596</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2720859986127153</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2559798507546845</v>
+        <v>0.257531469468141</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2876074672279528</v>
+        <v>0.2891010901209495</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1674</v>
@@ -6649,19 +6649,19 @@
         <v>1800608</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1725769</v>
+        <v>1727037</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1883697</v>
+        <v>1881408</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2590340611255081</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2482678420057892</v>
+        <v>0.2484501747982445</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2709872381234683</v>
+        <v>0.2706579438729613</v>
       </c>
     </row>
     <row r="42">
@@ -6678,19 +6678,19 @@
         <v>261122</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>230753</v>
+        <v>230057</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>297348</v>
+        <v>294961</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07656143075641815</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06765717069525592</v>
+        <v>0.067453073567194</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08718278985731538</v>
+        <v>0.0864828906709085</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>239</v>
@@ -6699,19 +6699,19 @@
         <v>259923</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>231847</v>
+        <v>227806</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>300455</v>
+        <v>290543</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07341184422636007</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06548214455846151</v>
+        <v>0.06434067041605</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.08485957429663155</v>
+        <v>0.08206005290066504</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>479</v>
@@ -6720,19 +6720,19 @@
         <v>521045</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>474620</v>
+        <v>476240</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>565908</v>
+        <v>566987</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0749571878048801</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06827846929327838</v>
+        <v>0.06851151749271704</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08141106360937826</v>
+        <v>0.08156634976892309</v>
       </c>
     </row>
     <row r="43">
@@ -6749,19 +6749,19 @@
         <v>45342</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>32529</v>
+        <v>31880</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>60028</v>
+        <v>59512</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01329426826751681</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.009537543893103424</v>
+        <v>0.009347123881585784</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01760035824898982</v>
+        <v>0.01744906099655576</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>47</v>
@@ -6770,19 +6770,19 @@
         <v>52314</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>39428</v>
+        <v>39088</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>69968</v>
+        <v>69178</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0147753631533028</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01113600213944823</v>
+        <v>0.01103981109609592</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01976164975255282</v>
+        <v>0.01953840400582062</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>89</v>
@@ -6791,19 +6791,19 @@
         <v>97656</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>79187</v>
+        <v>78376</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>118196</v>
+        <v>119585</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01404866444250852</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01139182047198786</v>
+        <v>0.01127512580552283</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01700357441507472</v>
+        <v>0.01720345591630393</v>
       </c>
     </row>
     <row r="44">
@@ -6820,19 +6820,19 @@
         <v>16051</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9275</v>
+        <v>8400</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>26762</v>
+        <v>26554</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.004706278525751292</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.002719432051809518</v>
+        <v>0.002462949235853266</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.007846610589028226</v>
+        <v>0.007785636890847152</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>17</v>
@@ -6841,19 +6841,19 @@
         <v>17403</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>10356</v>
+        <v>10398</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>27070</v>
+        <v>28239</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.004915109429687363</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.002924971130369725</v>
+        <v>0.002936867435780879</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.007645429886878942</v>
+        <v>0.007975641884235602</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>31</v>
@@ -6862,19 +6862,19 @@
         <v>33454</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>22487</v>
+        <v>21423</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>47787</v>
+        <v>46031</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.004812646616453212</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003234964370301153</v>
+        <v>0.003081844387889266</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.006874628428275287</v>
+        <v>0.006622054004685352</v>
       </c>
     </row>
     <row r="45">
@@ -7208,19 +7208,19 @@
         <v>240294</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>220494</v>
+        <v>217385</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>262044</v>
+        <v>260202</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5611372902814283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5149004670016616</v>
+        <v>0.5076407012004676</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6119287614638625</v>
+        <v>0.6076265487509374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>185</v>
@@ -7229,19 +7229,19 @@
         <v>190786</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>171545</v>
+        <v>173120</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>209141</v>
+        <v>209862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5548312197123094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4988734136657669</v>
+        <v>0.5034558090693197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6082073548449889</v>
+        <v>0.6103053955164202</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>407</v>
@@ -7250,19 +7250,19 @@
         <v>431081</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>405300</v>
+        <v>403775</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>462283</v>
+        <v>458814</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5583287743765232</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.524938318777183</v>
+        <v>0.5229633700753225</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.598742195388775</v>
+        <v>0.5942485297001187</v>
       </c>
     </row>
     <row r="5">
@@ -7279,19 +7279,19 @@
         <v>132410</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113851</v>
+        <v>114513</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152870</v>
+        <v>153469</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3092062493663637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2658663244049616</v>
+        <v>0.2674125447726144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.356983758086575</v>
+        <v>0.3583818127075282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>110</v>
@@ -7300,19 +7300,19 @@
         <v>117361</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99892</v>
+        <v>100341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135043</v>
+        <v>136201</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3413003228825339</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2904977730867037</v>
+        <v>0.291803129281381</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3927221139931338</v>
+        <v>0.3960894396937436</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>234</v>
@@ -7321,19 +7321,19 @@
         <v>249771</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>223576</v>
+        <v>223400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>275694</v>
+        <v>278990</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3234998914903139</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2895724493522255</v>
+        <v>0.2893438883588302</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3570750239675419</v>
+        <v>0.3613429903250379</v>
       </c>
     </row>
     <row r="6">
@@ -7350,19 +7350,19 @@
         <v>47921</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34458</v>
+        <v>36140</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64192</v>
+        <v>63077</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1119053165979185</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0804673808201818</v>
+        <v>0.08439514994532814</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1499020385774741</v>
+        <v>0.1472989342338875</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -7371,19 +7371,19 @@
         <v>29576</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20703</v>
+        <v>20343</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41389</v>
+        <v>40656</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0860112451747946</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06020829471232546</v>
+        <v>0.05915974686436135</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.120364762568611</v>
+        <v>0.118233625565711</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -7392,19 +7392,19 @@
         <v>77497</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61184</v>
+        <v>60564</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>95272</v>
+        <v>94652</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.100372950976968</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07924514608668569</v>
+        <v>0.07844150828054837</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1233953840312724</v>
+        <v>0.1225912887410763</v>
       </c>
     </row>
     <row r="7">
@@ -7421,19 +7421,19 @@
         <v>5650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2098</v>
+        <v>2080</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12612</v>
+        <v>14127</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01319501523061374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004898647312698088</v>
+        <v>0.004856077882995219</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0294506264259508</v>
+        <v>0.03298882918839866</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -7442,19 +7442,19 @@
         <v>4321</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1107</v>
+        <v>1121</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10916</v>
+        <v>10660</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01256650877341751</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003220142166060884</v>
+        <v>0.003259866920182406</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03174620794628396</v>
+        <v>0.03100028835204179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -7463,19 +7463,19 @@
         <v>9972</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5095</v>
+        <v>4681</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19193</v>
+        <v>18221</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01291509917797466</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006598700940565687</v>
+        <v>0.006062313501216689</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02485874628404142</v>
+        <v>0.02359942865161804</v>
       </c>
     </row>
     <row r="8">
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6199</v>
+        <v>6004</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004556128523675664</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0144759277822243</v>
+        <v>0.01401951030837267</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10312</v>
+        <v>9836</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005290703456944565</v>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02998937491093114</v>
+        <v>0.02860477173983415</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -7534,19 +7534,19 @@
         <v>3770</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11859</v>
+        <v>11561</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004883283978220258</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001231777731665093</v>
+        <v>0.001234635543482569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01535953615623425</v>
+        <v>0.01497311281425034</v>
       </c>
     </row>
     <row r="9">
@@ -7638,19 +7638,19 @@
         <v>220845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>200842</v>
+        <v>199263</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>239790</v>
+        <v>238554</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5876186013623583</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5343963714882954</v>
+        <v>0.5301943265552612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6380268121293241</v>
+        <v>0.6347388835844914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>195</v>
@@ -7659,19 +7659,19 @@
         <v>207065</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>187767</v>
+        <v>188255</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>224832</v>
+        <v>225045</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5593609520754552</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5072290825935772</v>
+        <v>0.5085479839706836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.607356941999586</v>
+        <v>0.6079314538683565</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>400</v>
@@ -7680,19 +7680,19 @@
         <v>427910</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>402513</v>
+        <v>399109</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>456538</v>
+        <v>453972</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5735967578436866</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5395525340906034</v>
+        <v>0.534990393490651</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6119712474262357</v>
+        <v>0.6085313393588276</v>
       </c>
     </row>
     <row r="11">
@@ -7709,19 +7709,19 @@
         <v>105384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89256</v>
+        <v>87981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123750</v>
+        <v>125182</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2804034880441991</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2374894642508373</v>
+        <v>0.2340988288769192</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3292707698868468</v>
+        <v>0.3330827082247593</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>116</v>
@@ -7730,19 +7730,19 @@
         <v>120986</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>102056</v>
+        <v>104399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139498</v>
+        <v>139753</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.326828411048814</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2756908867872705</v>
+        <v>0.2820224367625036</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3768373058363859</v>
+        <v>0.377527413156621</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>217</v>
@@ -7751,19 +7751,19 @@
         <v>226370</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>201180</v>
+        <v>202967</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>251896</v>
+        <v>255086</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.303440188624909</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.269674384013423</v>
+        <v>0.2720688266986708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3376563452639584</v>
+        <v>0.3419332426536769</v>
       </c>
     </row>
     <row r="12">
@@ -7780,19 +7780,19 @@
         <v>40057</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29214</v>
+        <v>29005</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54005</v>
+        <v>52249</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1065833811182067</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07773172772325772</v>
+        <v>0.07717638636320213</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1436939646654142</v>
+        <v>0.1390216385015616</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -7801,19 +7801,19 @@
         <v>37909</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26925</v>
+        <v>27445</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51933</v>
+        <v>52409</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1024062817830759</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07273400719874985</v>
+        <v>0.07414073300307217</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1402902530207142</v>
+        <v>0.1415773391574716</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -7822,19 +7822,19 @@
         <v>77966</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61951</v>
+        <v>63106</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>95660</v>
+        <v>97414</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1045106456034978</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08304269162861087</v>
+        <v>0.08459075900477965</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.128228435236199</v>
+        <v>0.1305802018228306</v>
       </c>
     </row>
     <row r="13">
@@ -7851,19 +7851,19 @@
         <v>6365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2402</v>
+        <v>2268</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15019</v>
+        <v>15373</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01693699901364925</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006390382544549898</v>
+        <v>0.006033317837865988</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03996299854738514</v>
+        <v>0.04090325649118238</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -7872,19 +7872,19 @@
         <v>4222</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1050</v>
+        <v>1028</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9535</v>
+        <v>9653</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01140435509265484</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00283575958735314</v>
+        <v>0.002777269631412628</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02575716993178795</v>
+        <v>0.02607623762430748</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -7893,19 +7893,19 @@
         <v>10587</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5114</v>
+        <v>5412</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19328</v>
+        <v>20238</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01419162318577845</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006854952894858897</v>
+        <v>0.00725476308438089</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02590906063853401</v>
+        <v>0.02712848132141012</v>
       </c>
     </row>
     <row r="14">
@@ -7922,19 +7922,19 @@
         <v>3179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8594</v>
+        <v>9736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008457530461586567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002605564078152748</v>
+        <v>0.002636716824205882</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02286664784837821</v>
+        <v>0.02590461256812325</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7956,19 +7956,19 @@
         <v>3179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8754</v>
+        <v>8006</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004260784742128185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001323039433737387</v>
+        <v>0.001326054810500564</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01173405909776369</v>
+        <v>0.0107317429077965</v>
       </c>
     </row>
     <row r="15">
@@ -8060,19 +8060,19 @@
         <v>274229</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>250237</v>
+        <v>252125</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>297291</v>
+        <v>298363</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5254298675928546</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4794594917340794</v>
+        <v>0.4830776575689928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5696161275147046</v>
+        <v>0.5716716344522945</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -8081,19 +8081,19 @@
         <v>81548</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>68155</v>
+        <v>69251</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>94146</v>
+        <v>94177</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4954994573475712</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4141186712932795</v>
+        <v>0.4207791045215911</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5720478457101543</v>
+        <v>0.5722335978867636</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>342</v>
@@ -8102,19 +8102,19 @@
         <v>355778</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>326796</v>
+        <v>327957</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>382232</v>
+        <v>382444</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5182544027614937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4760381910101583</v>
+        <v>0.4777286348953023</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5567900451231073</v>
+        <v>0.5570985159371278</v>
       </c>
     </row>
     <row r="17">
@@ -8131,19 +8131,19 @@
         <v>163904</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>143187</v>
+        <v>142940</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186229</v>
+        <v>186883</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3140448028199629</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2743501119090433</v>
+        <v>0.273875635548687</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3568190757485301</v>
+        <v>0.3580728070320508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -8152,19 +8152,19 @@
         <v>53004</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41621</v>
+        <v>40279</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65943</v>
+        <v>66032</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3220579439221815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2528975612676821</v>
+        <v>0.244738512044619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4006775301671257</v>
+        <v>0.4012196878348765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>206</v>
@@ -8173,19 +8173,19 @@
         <v>216908</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>191721</v>
+        <v>192434</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>244688</v>
+        <v>244929</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.315965859420808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2792764592566193</v>
+        <v>0.2803144664784064</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3564330150115158</v>
+        <v>0.3567832874962871</v>
       </c>
     </row>
     <row r="18">
@@ -8202,19 +8202,19 @@
         <v>63645</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49970</v>
+        <v>47494</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80388</v>
+        <v>79309</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1219447237251591</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09574332522280812</v>
+        <v>0.0909998004108367</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1540245647089042</v>
+        <v>0.1519572315203553</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -8223,19 +8223,19 @@
         <v>21783</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13670</v>
+        <v>13297</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33059</v>
+        <v>33250</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1323566006087369</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08305889829693169</v>
+        <v>0.08079168286236903</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2008730728971236</v>
+        <v>0.2020306498544829</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>80</v>
@@ -8244,19 +8244,19 @@
         <v>85428</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68265</v>
+        <v>67852</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>105189</v>
+        <v>104795</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1244408490971241</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09943970518749679</v>
+        <v>0.09883849712239132</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1532275364962674</v>
+        <v>0.1526525576080536</v>
       </c>
     </row>
     <row r="19">
@@ -8273,19 +8273,19 @@
         <v>14600</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7485</v>
+        <v>7689</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24257</v>
+        <v>24453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02797468592053633</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01434085701587594</v>
+        <v>0.01473181210779069</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04647636749393681</v>
+        <v>0.04685267763338177</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -8294,19 +8294,19 @@
         <v>4499</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1045</v>
+        <v>1021</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12820</v>
+        <v>11320</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02733672442514371</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006347591362215548</v>
+        <v>0.006205160397129587</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07789443703723739</v>
+        <v>0.06877960959744976</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -8315,19 +8315,19 @@
         <v>19099</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12121</v>
+        <v>11353</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29993</v>
+        <v>29301</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0278217421340517</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01765578984876457</v>
+        <v>0.01653817651047508</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0436905458477141</v>
+        <v>0.04268212144578995</v>
       </c>
     </row>
     <row r="20">
@@ -8344,19 +8344,19 @@
         <v>5535</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1968</v>
+        <v>2563</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11360</v>
+        <v>11530</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.010605919941487</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003771046042063594</v>
+        <v>0.004911286961975771</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02176535228750207</v>
+        <v>0.02209089628483276</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -8365,19 +8365,19 @@
         <v>3744</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1097</v>
+        <v>1111</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10202</v>
+        <v>10252</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02274927369636668</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00666709512536144</v>
+        <v>0.006750869577348452</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06198731512165045</v>
+        <v>0.06229389539916508</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -8386,19 +8386,19 @@
         <v>9279</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4254</v>
+        <v>4283</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16413</v>
+        <v>16679</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01351714658652252</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006196514066918108</v>
+        <v>0.006238799350985085</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02390783371428786</v>
+        <v>0.02429528210222643</v>
       </c>
     </row>
     <row r="21">
@@ -8490,19 +8490,19 @@
         <v>638130</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>605791</v>
+        <v>603364</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>671862</v>
+        <v>670031</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5561238857360532</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5279404811156655</v>
+        <v>0.5258253999733991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5855210202413501</v>
+        <v>0.5839250692574692</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>431</v>
@@ -8511,19 +8511,19 @@
         <v>444602</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>415791</v>
+        <v>416583</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>474563</v>
+        <v>472956</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.538982931382593</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5040553072975807</v>
+        <v>0.5050156677718026</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5753038402658144</v>
+        <v>0.5733559360422537</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1040</v>
@@ -8532,19 +8532,19 @@
         <v>1082732</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1038027</v>
+        <v>1031192</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1130533</v>
+        <v>1126253</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5489550692910345</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.52628922603268</v>
+        <v>0.5228240136943497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5731907389927882</v>
+        <v>0.5710203691904411</v>
       </c>
     </row>
     <row r="23">
@@ -8561,19 +8561,19 @@
         <v>345242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>313818</v>
+        <v>315038</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>375678</v>
+        <v>376717</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3008747512613141</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.273488846552515</v>
+        <v>0.2745525004697327</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.32739969537326</v>
+        <v>0.3283053105600476</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>243</v>
@@ -8582,19 +8582,19 @@
         <v>251619</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>224967</v>
+        <v>222831</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>278358</v>
+        <v>276916</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3050336050773758</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2727232544040863</v>
+        <v>0.2701338790753476</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3374486602045392</v>
+        <v>0.3357003241809944</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>575</v>
@@ -8603,19 +8603,19 @@
         <v>596861</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>560156</v>
+        <v>557210</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>641681</v>
+        <v>638579</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3026140978002653</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2840041356276474</v>
+        <v>0.2825103271286928</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3253382970679006</v>
+        <v>0.3237653427648205</v>
       </c>
     </row>
     <row r="24">
@@ -8632,19 +8632,19 @@
         <v>142439</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>122441</v>
+        <v>118069</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>165014</v>
+        <v>164937</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1241342531875297</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1067061415604027</v>
+        <v>0.1028960741697125</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1438078287715385</v>
+        <v>0.1437408026792959</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>107</v>
@@ -8653,19 +8653,19 @@
         <v>110898</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>92230</v>
+        <v>91071</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>130499</v>
+        <v>130978</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1344398027107783</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1118087100928022</v>
+        <v>0.1104042005170808</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1582013923055974</v>
+        <v>0.1587817163986831</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>244</v>
@@ -8674,19 +8674,19 @@
         <v>253337</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>226443</v>
+        <v>223956</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>284674</v>
+        <v>283291</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1284443161731595</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1148085306221098</v>
+        <v>0.1135477820483001</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1443320751651148</v>
+        <v>0.1436312781942353</v>
       </c>
     </row>
     <row r="25">
@@ -8703,19 +8703,19 @@
         <v>19546</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12406</v>
+        <v>12112</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29854</v>
+        <v>28648</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01703372690660081</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01081161904179702</v>
+        <v>0.01055541329195553</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02601770586947588</v>
+        <v>0.02496680258002962</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -8724,19 +8724,19 @@
         <v>15053</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8766</v>
+        <v>8367</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25651</v>
+        <v>24602</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01824863093023714</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0106263844028787</v>
+        <v>0.01014283888576258</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03109616147453045</v>
+        <v>0.02982440716513932</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -8745,19 +8745,19 @@
         <v>34599</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24039</v>
+        <v>24791</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47341</v>
+        <v>47564</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01754183303442591</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01218779694638926</v>
+        <v>0.01256920470060467</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02400215438702994</v>
+        <v>0.02411537444881222</v>
       </c>
     </row>
     <row r="26">
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8384</v>
+        <v>6780</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001833382908502259</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007306414361255091</v>
+        <v>0.005908823873410899</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8900</v>
+        <v>10706</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00329502989901576</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0107895989948503</v>
+        <v>0.01297896305051518</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -8816,19 +8816,19 @@
         <v>4822</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1693</v>
+        <v>1670</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13140</v>
+        <v>12858</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002444683701114773</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0008584802551323345</v>
+        <v>0.0008467146872635737</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006662046912799629</v>
+        <v>0.00651896687688211</v>
       </c>
     </row>
     <row r="27">
@@ -8920,19 +8920,19 @@
         <v>292409</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>268630</v>
+        <v>268262</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>318663</v>
+        <v>318625</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4718959779685824</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4335213935920965</v>
+        <v>0.4329271747562057</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5142647841155278</v>
+        <v>0.514204449673744</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>349</v>
@@ -8941,19 +8941,19 @@
         <v>368587</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>339066</v>
+        <v>339085</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>397740</v>
+        <v>396104</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4992752465771313</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4592875625500277</v>
+        <v>0.4593133441104418</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5387647243245093</v>
+        <v>0.5365487886464179</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>625</v>
@@ -8962,19 +8962,19 @@
         <v>660996</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>622521</v>
+        <v>623936</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>698949</v>
+        <v>697869</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4867812496375467</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4584464503745604</v>
+        <v>0.459488531525422</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5147307717316844</v>
+        <v>0.5139355554274631</v>
       </c>
     </row>
     <row r="29">
@@ -8991,19 +8991,19 @@
         <v>215756</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>190653</v>
+        <v>193349</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>240334</v>
+        <v>242285</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3481925850334873</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3076797104089337</v>
+        <v>0.3120308820248296</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3878568028444844</v>
+        <v>0.3910043171832359</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>240</v>
@@ -9012,19 +9012,19 @@
         <v>252855</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>226148</v>
+        <v>226999</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>281037</v>
+        <v>281968</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.342508211518516</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.306332062002632</v>
+        <v>0.3074855503574813</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3806836643679934</v>
+        <v>0.3819442121527291</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>453</v>
@@ -9033,19 +9033,19 @@
         <v>468611</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>432390</v>
+        <v>436258</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>501718</v>
+        <v>508124</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3451021648601816</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3184273932426587</v>
+        <v>0.3212760591514572</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.369483106064553</v>
+        <v>0.3742003443492969</v>
       </c>
     </row>
     <row r="30">
@@ -9062,19 +9062,19 @@
         <v>79763</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>64194</v>
+        <v>63045</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>97596</v>
+        <v>96945</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1287225957364216</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.10359839590085</v>
+        <v>0.1017428682736702</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1575017858989475</v>
+        <v>0.156452721132674</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>90</v>
@@ -9083,19 +9083,19 @@
         <v>95105</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>78966</v>
+        <v>77598</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>114885</v>
+        <v>114423</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1288264525002936</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1069652485739334</v>
+        <v>0.1051121241629674</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1556187321364231</v>
+        <v>0.1549932441745067</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>166</v>
@@ -9104,19 +9104,19 @@
         <v>174868</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>151149</v>
+        <v>150888</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>200505</v>
+        <v>199850</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1287790594852163</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1113117487192758</v>
+        <v>0.1111195330923937</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1476589340807166</v>
+        <v>0.1471765844125808</v>
       </c>
     </row>
     <row r="31">
@@ -9133,19 +9133,19 @@
         <v>25624</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17113</v>
+        <v>16884</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>37499</v>
+        <v>37809</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04135179283134919</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02761699676422021</v>
+        <v>0.02724739750750558</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06051661293130332</v>
+        <v>0.06101779044750523</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -9154,19 +9154,19 @@
         <v>18451</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10727</v>
+        <v>11151</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28155</v>
+        <v>28900</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02499273861669517</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01452978829271161</v>
+        <v>0.01510451221821617</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03813837314129796</v>
+        <v>0.03914699349132766</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -9175,19 +9175,19 @@
         <v>44074</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32523</v>
+        <v>32588</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>59495</v>
+        <v>59152</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03245787496546406</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02395086779742645</v>
+        <v>0.02399866354018821</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04381429812215807</v>
+        <v>0.04356130483557727</v>
       </c>
     </row>
     <row r="32">
@@ -9204,19 +9204,19 @@
         <v>6095</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2116</v>
+        <v>2090</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12666</v>
+        <v>12556</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009837048430159477</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003415536623975327</v>
+        <v>0.003372442725761907</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02044036067257233</v>
+        <v>0.02026378028432687</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -9225,19 +9225,19 @@
         <v>3246</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8664</v>
+        <v>8688</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004397350787363934</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001406279656196985</v>
+        <v>0.001414523370197485</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01173578148965018</v>
+        <v>0.0117690169897237</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -9246,19 +9246,19 @@
         <v>9342</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4216</v>
+        <v>4253</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16795</v>
+        <v>17055</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0068796510515913</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003105127602333381</v>
+        <v>0.003132015462908788</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01236835365727767</v>
+        <v>0.0125598901960028</v>
       </c>
     </row>
     <row r="33">
@@ -9350,19 +9350,19 @@
         <v>178563</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>162774</v>
+        <v>161802</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>194162</v>
+        <v>195010</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6218552848585089</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5668717440988597</v>
+        <v>0.5634862405612855</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6761801353398034</v>
+        <v>0.6791346323902057</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>519</v>
@@ -9371,19 +9371,19 @@
         <v>558284</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>522594</v>
+        <v>521903</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>591083</v>
+        <v>589761</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.517477672284631</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4843962877855394</v>
+        <v>0.4837560478614245</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5478794057016002</v>
+        <v>0.546654090024053</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>686</v>
@@ -9392,19 +9392,19 @@
         <v>736847</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>696946</v>
+        <v>700270</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>777218</v>
+        <v>772178</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5394187380401068</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5102086958939627</v>
+        <v>0.5126420703486322</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5689729851785971</v>
+        <v>0.5652838686999276</v>
       </c>
     </row>
     <row r="35">
@@ -9421,19 +9421,19 @@
         <v>87740</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>72369</v>
+        <v>72789</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>102033</v>
+        <v>104199</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3055600142905512</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.252028861243799</v>
+        <v>0.2534905494268878</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3553368354991689</v>
+        <v>0.3628785181410671</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>312</v>
@@ -9442,19 +9442,19 @@
         <v>342013</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>311692</v>
+        <v>310740</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>373037</v>
+        <v>373826</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3170143226995098</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2889094117530928</v>
+        <v>0.2880272955425135</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3457707395111414</v>
+        <v>0.3465023924169389</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>397</v>
@@ -9463,19 +9463,19 @@
         <v>429753</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>397973</v>
+        <v>393008</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>469285</v>
+        <v>462264</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3146065292293672</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2913418395060612</v>
+        <v>0.2877072591198259</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3435467699576873</v>
+        <v>0.3384067820304</v>
       </c>
     </row>
     <row r="36">
@@ -9492,19 +9492,19 @@
         <v>20842</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13561</v>
+        <v>13461</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>31372</v>
+        <v>31970</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07258470085093988</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04722782460519301</v>
+        <v>0.04687890106500571</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1092537747664643</v>
+        <v>0.1113379650445524</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>136</v>
@@ -9513,19 +9513,19 @@
         <v>152423</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>128095</v>
+        <v>130537</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>176233</v>
+        <v>179972</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1412821724045594</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1187326295501153</v>
+        <v>0.120995961992726</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1633520031803505</v>
+        <v>0.1668174436596288</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>156</v>
@@ -9534,19 +9534,19 @@
         <v>173265</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>148339</v>
+        <v>148196</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>202032</v>
+        <v>199044</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1268413770709238</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1085937968048267</v>
+        <v>0.1084892186266862</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1479003821711089</v>
+        <v>0.145713096753519</v>
       </c>
     </row>
     <row r="37">
@@ -9576,19 +9576,19 @@
         <v>20441</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12700</v>
+        <v>12417</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>32130</v>
+        <v>31854</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0189468168697469</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01177129136512006</v>
+        <v>0.01150986463499792</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02978152159559349</v>
+        <v>0.02952568356711818</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>17</v>
@@ -9597,19 +9597,19 @@
         <v>20441</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>12339</v>
+        <v>11817</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32457</v>
+        <v>32838</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01496403412021972</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009032811690378078</v>
+        <v>0.008650810771686342</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02376088845885084</v>
+        <v>0.02403925509006654</v>
       </c>
     </row>
     <row r="38">
@@ -9639,19 +9639,19 @@
         <v>5695</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2186</v>
+        <v>2013</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>13395</v>
+        <v>12199</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.00527901574155276</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.002025759404356999</v>
+        <v>0.001865858148071304</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01241588521819723</v>
+        <v>0.01130738968024258</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>5</v>
@@ -9660,19 +9660,19 @@
         <v>5695</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2223</v>
+        <v>2117</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>12766</v>
+        <v>12643</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.004169321539382555</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001627358207602168</v>
+        <v>0.001549490330800261</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.00934577213550951</v>
+        <v>0.00925576221557107</v>
       </c>
     </row>
     <row r="39">
@@ -9764,19 +9764,19 @@
         <v>1844470</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1782029</v>
+        <v>1783171</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1897990</v>
+        <v>1903399</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5456650367238142</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5271926773223399</v>
+        <v>0.5275306979380685</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5614984736403079</v>
+        <v>0.5630987952354172</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1756</v>
@@ -9785,19 +9785,19 @@
         <v>1850873</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1788114</v>
+        <v>1789001</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1909379</v>
+        <v>1912834</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5257243760604445</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5078983108679714</v>
+        <v>0.5081502279604373</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5423424170893907</v>
+        <v>0.5433239253943977</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3500</v>
@@ -9806,19 +9806,19 @@
         <v>3695343</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3610142</v>
+        <v>3613846</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3781897</v>
+        <v>3777707</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5354918680155129</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5231454739063456</v>
+        <v>0.5236821859800646</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5480343881788993</v>
+        <v>0.5474272501356647</v>
       </c>
     </row>
     <row r="41">
@@ -9835,19 +9835,19 @@
         <v>1050437</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>992915</v>
+        <v>996492</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1101708</v>
+        <v>1108717</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3107597227757273</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2937424110890954</v>
+        <v>0.29480066873341</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3259275109990408</v>
+        <v>0.3280011765502988</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1072</v>
@@ -9856,19 +9856,19 @@
         <v>1137837</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1087141</v>
+        <v>1084742</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1199990</v>
+        <v>1196589</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3231928078263386</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3087929941194331</v>
+        <v>0.3081115652260374</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3408465801215739</v>
+        <v>0.3398806563992918</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2082</v>
@@ -9877,19 +9877,19 @@
         <v>2188275</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2108958</v>
+        <v>2112068</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2270359</v>
+        <v>2268710</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3171027358744294</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3056089328338918</v>
+        <v>0.3060596868349966</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3289976258017019</v>
+        <v>0.3287585911075585</v>
       </c>
     </row>
     <row r="42">
@@ -9906,19 +9906,19 @@
         <v>394667</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>358207</v>
+        <v>356518</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>431321</v>
+        <v>433049</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1167576094386805</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1059714243429023</v>
+        <v>0.1054718367388573</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1276012053323514</v>
+        <v>0.1281124316252644</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>414</v>
@@ -9927,19 +9927,19 @@
         <v>447695</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>408891</v>
+        <v>406975</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>491253</v>
+        <v>489495</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1271638059205733</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1161419010133158</v>
+        <v>0.1155975736733845</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1395360174055987</v>
+        <v>0.1390367578097298</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>791</v>
@@ -9948,19 +9948,19 @@
         <v>842362</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>789907</v>
+        <v>789413</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>901674</v>
+        <v>899513</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1220665605416144</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1144653532113722</v>
+        <v>0.1143937858663036</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1306615682758961</v>
+        <v>0.1303483236511637</v>
       </c>
     </row>
     <row r="43">
@@ -9977,19 +9977,19 @@
         <v>71785</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>55778</v>
+        <v>56170</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>90785</v>
+        <v>90638</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02123685704540837</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01650136134503415</v>
+        <v>0.01661712389320364</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02685756893358321</v>
+        <v>0.02681409359132187</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>60</v>
@@ -9998,19 +9998,19 @@
         <v>66987</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>50674</v>
+        <v>50972</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>84648</v>
+        <v>85835</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01902697337987461</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01439358166319533</v>
+        <v>0.01447818107070825</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02404343674026572</v>
+        <v>0.02438069700998602</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>129</v>
@@ -10019,19 +10019,19 @@
         <v>138772</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>116402</v>
+        <v>115939</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>166774</v>
+        <v>160122</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02010943605697081</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01686777950360886</v>
+        <v>0.01680072335224122</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02416720733400727</v>
+        <v>0.02320326605757381</v>
       </c>
     </row>
     <row r="44">
@@ -10048,19 +10048,19 @@
         <v>18864</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11728</v>
+        <v>11712</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>29485</v>
+        <v>29743</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.005580774016369662</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003469544873869334</v>
+        <v>0.003464930522928184</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.008722902670846581</v>
+        <v>0.008799187238741044</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>14</v>
@@ -10069,19 +10069,19 @@
         <v>17223</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>9803</v>
+        <v>9343</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>28811</v>
+        <v>28157</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.004892036812768965</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.002784449576125511</v>
+        <v>0.002653745824149751</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.008183549497680158</v>
+        <v>0.007997792513615059</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>33</v>
@@ -10090,19 +10090,19 @@
         <v>36087</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>25496</v>
+        <v>25107</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>51603</v>
+        <v>50842</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.005229399511472514</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003694600822528393</v>
+        <v>0.00363825065517809</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.00747774357356329</v>
+        <v>0.007367530919947926</v>
       </c>
     </row>
     <row r="45">
@@ -10436,19 +10436,19 @@
         <v>375941</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>352847</v>
+        <v>353022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>397625</v>
+        <v>397583</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6827621949298063</v>
+        <v>0.6827621949298064</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6408191874237552</v>
+        <v>0.6411375920935172</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7221422335966761</v>
+        <v>0.7220670752373708</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>491</v>
@@ -10457,19 +10457,19 @@
         <v>354153</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>337808</v>
+        <v>335811</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>372267</v>
+        <v>371722</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7261194720685358</v>
+        <v>0.7261194720685357</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6926073658220777</v>
+        <v>0.6885126870623804</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7632586850136923</v>
+        <v>0.7621409946340199</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>853</v>
@@ -10478,19 +10478,19 @@
         <v>730094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>699542</v>
+        <v>703671</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>757484</v>
+        <v>758829</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7031279460084334</v>
+        <v>0.7031279460084335</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6737040881933974</v>
+        <v>0.6776804880593952</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7295061051959324</v>
+        <v>0.7308015273220949</v>
       </c>
     </row>
     <row r="5">
@@ -10507,19 +10507,19 @@
         <v>133950</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114596</v>
+        <v>114373</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156306</v>
+        <v>155450</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2432730087310729</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2081231553181951</v>
+        <v>0.2077169628432156</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2838729769442166</v>
+        <v>0.2823193489177967</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>145</v>
@@ -10528,19 +10528,19 @@
         <v>98339</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83514</v>
+        <v>82375</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113124</v>
+        <v>114266</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2016241502563117</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1712291800230505</v>
+        <v>0.1688929150426234</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2319382701894492</v>
+        <v>0.2342790865638086</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>293</v>
@@ -10549,19 +10549,19 @@
         <v>232289</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>207545</v>
+        <v>207696</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>257892</v>
+        <v>256309</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2237097349191138</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1998793144446028</v>
+        <v>0.2000242915731142</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2483666872364687</v>
+        <v>0.2468423666215643</v>
       </c>
     </row>
     <row r="6">
@@ -10578,19 +10578,19 @@
         <v>24148</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15873</v>
+        <v>15875</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35908</v>
+        <v>36119</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04385700545636305</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0288274310272359</v>
+        <v>0.0288319767365055</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06521470043105007</v>
+        <v>0.06559694453965437</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -10599,19 +10599,19 @@
         <v>18269</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11147</v>
+        <v>11936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27692</v>
+        <v>28297</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03745681288043871</v>
+        <v>0.0374568128804387</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02285542169570444</v>
+        <v>0.02447326515349083</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05677648273096389</v>
+        <v>0.05801758738691049</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -10620,19 +10620,19 @@
         <v>42417</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32084</v>
+        <v>31260</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56340</v>
+        <v>56725</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04085071130095538</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0308992484935502</v>
+        <v>0.03010503045794878</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05425951147833847</v>
+        <v>0.05462940469869896</v>
       </c>
     </row>
     <row r="7">
@@ -10649,19 +10649,19 @@
         <v>9162</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4549</v>
+        <v>4443</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16064</v>
+        <v>16743</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01663954666632807</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008261186515113535</v>
+        <v>0.008069431489567161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02917359948527862</v>
+        <v>0.03040843347016781</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -10670,19 +10670,19 @@
         <v>8712</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5308</v>
+        <v>5313</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14999</v>
+        <v>13917</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.01786138397592718</v>
+        <v>0.01786138397592717</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0108821926155606</v>
+        <v>0.01089332909023157</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03075197453389049</v>
+        <v>0.0285330658731558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -10691,19 +10691,19 @@
         <v>17874</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11623</v>
+        <v>12110</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26882</v>
+        <v>26854</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01721346726623695</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01119405389086692</v>
+        <v>0.01166261954445242</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02588893859656535</v>
+        <v>0.02586198176016904</v>
       </c>
     </row>
     <row r="8">
@@ -10720,19 +10720,19 @@
         <v>7416</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2808</v>
+        <v>3061</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15339</v>
+        <v>15711</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01346824421642962</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005099176513211623</v>
+        <v>0.005559591063438671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02785708333070127</v>
+        <v>0.02853352292990005</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -10741,19 +10741,19 @@
         <v>8261</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4101</v>
+        <v>3908</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17421</v>
+        <v>18270</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01693818081878675</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008408363045295622</v>
+        <v>0.00801238105098288</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03571867938547009</v>
+        <v>0.03745795707226942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -10762,19 +10762,19 @@
         <v>15677</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9314</v>
+        <v>9225</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26778</v>
+        <v>25649</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0150981405052604</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008969531954704768</v>
+        <v>0.008884259014469532</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0257893106220359</v>
+        <v>0.02470182573366219</v>
       </c>
     </row>
     <row r="9">
@@ -10866,19 +10866,19 @@
         <v>285651</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>264907</v>
+        <v>262424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>309884</v>
+        <v>306514</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5927860585571397</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.549738082862515</v>
+        <v>0.5445864842849413</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6430748855961291</v>
+        <v>0.6360826866549258</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>379</v>
@@ -10887,19 +10887,19 @@
         <v>278631</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>261473</v>
+        <v>259888</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>296799</v>
+        <v>293910</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6584791638958079</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6179314732912603</v>
+        <v>0.6141838929331335</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7014153003152723</v>
+        <v>0.6945878837780417</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>652</v>
@@ -10908,19 +10908,19 @@
         <v>564281</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>533020</v>
+        <v>534880</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>591968</v>
+        <v>590942</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6235008934577213</v>
+        <v>0.6235008934577214</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5889588924111172</v>
+        <v>0.5910140358899661</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6540935989907068</v>
+        <v>0.6529592557006623</v>
       </c>
     </row>
     <row r="11">
@@ -10937,19 +10937,19 @@
         <v>153581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>132406</v>
+        <v>130978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>173027</v>
+        <v>175809</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3187142147881921</v>
+        <v>0.318714214788192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2747698826373322</v>
+        <v>0.2718067563014557</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3590680810311547</v>
+        <v>0.3648413565269437</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>169</v>
@@ -10958,19 +10958,19 @@
         <v>114676</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>98505</v>
+        <v>99626</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>130490</v>
+        <v>130437</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2710096135793692</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.232792862372023</v>
+        <v>0.2354437789591953</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3083829006593958</v>
+        <v>0.3082569436400745</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>328</v>
@@ -10979,19 +10979,19 @@
         <v>268257</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>239392</v>
+        <v>243289</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>293715</v>
+        <v>296300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2964099114282986</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2645158146924094</v>
+        <v>0.2688213418501925</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3245392918813143</v>
+        <v>0.3273959882415974</v>
       </c>
     </row>
     <row r="12">
@@ -11008,19 +11008,19 @@
         <v>24838</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16638</v>
+        <v>17150</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36205</v>
+        <v>36181</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05154409286453027</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03452701322817369</v>
+        <v>0.03558917842598381</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07513343850925568</v>
+        <v>0.07508250052886062</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -11029,19 +11029,19 @@
         <v>19032</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11804</v>
+        <v>12238</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28855</v>
+        <v>27739</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04497703326258501</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02789538243423636</v>
+        <v>0.02892242745470641</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06819279093274214</v>
+        <v>0.0655540227541546</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -11050,19 +11050,19 @@
         <v>43870</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33237</v>
+        <v>33766</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57212</v>
+        <v>57725</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04847366179849721</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03672476526834862</v>
+        <v>0.03730932320481654</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06321674151569298</v>
+        <v>0.06378271739234855</v>
       </c>
     </row>
     <row r="13">
@@ -11079,19 +11079,19 @@
         <v>17208</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10503</v>
+        <v>10718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25928</v>
+        <v>25624</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03571081092828302</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02179698709421859</v>
+        <v>0.02224264971990651</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05380669110090555</v>
+        <v>0.0531742859293355</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -11100,19 +11100,19 @@
         <v>8768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5129</v>
+        <v>4989</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15306</v>
+        <v>14570</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02072176294766407</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01212074287349535</v>
+        <v>0.01179037928326378</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03617280871740329</v>
+        <v>0.03443311932027912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -11121,19 +11121,19 @@
         <v>25977</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18496</v>
+        <v>17273</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37687</v>
+        <v>35702</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02870267618311948</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02043703975781185</v>
+        <v>0.01908547718357068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04164166158814114</v>
+        <v>0.03944858904273123</v>
       </c>
     </row>
     <row r="14">
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3027</v>
+        <v>3036</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001244822861855056</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.006281126150989295</v>
+        <v>0.006299710407622967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -11171,19 +11171,19 @@
         <v>2036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5248</v>
+        <v>6031</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004812426314573743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001530856005874566</v>
+        <v>0.001529566072205573</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01240218509209296</v>
+        <v>0.01425342360335767</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -11192,19 +11192,19 @@
         <v>2636</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6392</v>
+        <v>6541</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002912857132363196</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0007423180727994205</v>
+        <v>0.0007580775028854935</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007062815645272413</v>
+        <v>0.007227261975106504</v>
       </c>
     </row>
     <row r="15">
@@ -11296,19 +11296,19 @@
         <v>298491</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>276482</v>
+        <v>277142</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>317249</v>
+        <v>319015</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6329166812791909</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5862482383272024</v>
+        <v>0.5876480000508228</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6726912280113329</v>
+        <v>0.6764358107292276</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>166</v>
@@ -11317,19 +11317,19 @@
         <v>111388</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100275</v>
+        <v>100117</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122880</v>
+        <v>122660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5940782547620524</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5348059454814982</v>
+        <v>0.5339678994328404</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6553722597083662</v>
+        <v>0.6541974604264079</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>453</v>
@@ -11338,19 +11338,19 @@
         <v>409879</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>387333</v>
+        <v>383793</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>434519</v>
+        <v>432515</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6218682818128832</v>
+        <v>0.6218682818128833</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5876612204289244</v>
+        <v>0.5822906208953521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6592518737995147</v>
+        <v>0.6562121716795857</v>
       </c>
     </row>
     <row r="17">
@@ -11367,19 +11367,19 @@
         <v>134255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>115801</v>
+        <v>114171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>154366</v>
+        <v>153408</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.284672320527979</v>
+        <v>0.2846723205279789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2455429275079525</v>
+        <v>0.2420872521174497</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3273164405917498</v>
+        <v>0.3252845142124211</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -11388,19 +11388,19 @@
         <v>60326</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49840</v>
+        <v>48224</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>70848</v>
+        <v>70774</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3217435683407556</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2658199324997195</v>
+        <v>0.2571976493945866</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3778612864427643</v>
+        <v>0.3774680920745973</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>252</v>
@@ -11409,19 +11409,19 @@
         <v>194581</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>174468</v>
+        <v>173915</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>218070</v>
+        <v>218369</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2952180091997201</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2647032639914095</v>
+        <v>0.2638635420360785</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.330856401378316</v>
+        <v>0.3313099468724432</v>
       </c>
     </row>
     <row r="18">
@@ -11438,19 +11438,19 @@
         <v>20138</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13656</v>
+        <v>12984</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31125</v>
+        <v>29565</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.04269999845698932</v>
+        <v>0.0426999984569893</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02895664513351394</v>
+        <v>0.02753189521101968</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06599763727825088</v>
+        <v>0.06268936547877745</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -11459,19 +11459,19 @@
         <v>11242</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6373</v>
+        <v>6516</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17610</v>
+        <v>18022</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.05996074240301428</v>
+        <v>0.05996074240301427</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03399179621191942</v>
+        <v>0.03475034161925679</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09392114484686317</v>
+        <v>0.09611665213435597</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>41</v>
@@ -11480,19 +11480,19 @@
         <v>31380</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23144</v>
+        <v>23066</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>41809</v>
+        <v>44020</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04761017663110204</v>
+        <v>0.04761017663110203</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03511333834522359</v>
+        <v>0.03499536384992291</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06343274908653371</v>
+        <v>0.06678653310245289</v>
       </c>
     </row>
     <row r="19">
@@ -11509,19 +11509,19 @@
         <v>15964</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9883</v>
+        <v>10468</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24206</v>
+        <v>24110</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03385068094967317</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02095566929304546</v>
+        <v>0.02219719336935223</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05132668654028449</v>
+        <v>0.05112328245154555</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -11530,19 +11530,19 @@
         <v>4165</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1669</v>
+        <v>1447</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9272</v>
+        <v>8478</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02221124475802525</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008900256788120085</v>
+        <v>0.007719948824460387</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04945149431531853</v>
+        <v>0.0452160833853876</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -11551,19 +11551,19 @@
         <v>20129</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13300</v>
+        <v>13995</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29411</v>
+        <v>28656</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03053960086379027</v>
+        <v>0.03053960086379026</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0201780770739707</v>
+        <v>0.02123381482016801</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04462276111529146</v>
+        <v>0.04347730816515098</v>
       </c>
     </row>
     <row r="20">
@@ -11580,19 +11580,19 @@
         <v>2764</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>651</v>
+        <v>984</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7020</v>
+        <v>7765</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00586031878616777</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001379523621749314</v>
+        <v>0.002086663740227994</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01488450301266639</v>
+        <v>0.01646544166171767</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2279</v>
+        <v>1927</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002006189736152408</v>
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01215319395881131</v>
+        <v>0.01027499776155606</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -11622,19 +11622,19 @@
         <v>3140</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1095</v>
+        <v>1110</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8019</v>
+        <v>7987</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004763931492504371</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00166171310207162</v>
+        <v>0.001684394176519575</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01216624588670875</v>
+        <v>0.01211814944996764</v>
       </c>
     </row>
     <row r="21">
@@ -11726,19 +11726,19 @@
         <v>682631</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>647721</v>
+        <v>650730</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>718205</v>
+        <v>713941</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6042799273844862</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5733768791884806</v>
+        <v>0.5760404971634796</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6357712527540771</v>
+        <v>0.6319962401114053</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>751</v>
@@ -11747,19 +11747,19 @@
         <v>553497</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>528787</v>
+        <v>527135</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>576933</v>
+        <v>578196</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6426959630272805</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6140034977285397</v>
+        <v>0.6120862717858455</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6699093874130728</v>
+        <v>0.6713749862180985</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1377</v>
@@ -11768,19 +11768,19 @@
         <v>1236128</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1193219</v>
+        <v>1190545</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1283442</v>
+        <v>1276198</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6208979410550688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.599344690367185</v>
+        <v>0.5980017795122793</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.644663318370335</v>
+        <v>0.6410246520293729</v>
       </c>
     </row>
     <row r="23">
@@ -11797,19 +11797,19 @@
         <v>324089</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>291067</v>
+        <v>291604</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>356964</v>
+        <v>354912</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2868906122693227</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2576588504459431</v>
+        <v>0.258133977239472</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.315992506361818</v>
+        <v>0.3141755883375086</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>356</v>
@@ -11818,19 +11818,19 @@
         <v>226048</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>202402</v>
+        <v>203725</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>248036</v>
+        <v>250132</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2624764891525698</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2350202955068234</v>
+        <v>0.2365565734694943</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2880079557596965</v>
+        <v>0.2904418199822043</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>703</v>
@@ -11839,19 +11839,19 @@
         <v>550137</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>511235</v>
+        <v>512730</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>587578</v>
+        <v>591100</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2763295477315355</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2567897329715617</v>
+        <v>0.2575404033773474</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2951361982773691</v>
+        <v>0.2969050753927643</v>
       </c>
     </row>
     <row r="24">
@@ -11868,19 +11868,19 @@
         <v>68432</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>53735</v>
+        <v>53959</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>85610</v>
+        <v>84930</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06057744867578063</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04756753125502516</v>
+        <v>0.04776561836534829</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07578407185665198</v>
+        <v>0.07518176041105386</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>70</v>
@@ -11889,19 +11889,19 @@
         <v>44076</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35682</v>
+        <v>34846</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56425</v>
+        <v>55639</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05117925010086639</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.041432204771292</v>
+        <v>0.04046207966745694</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06551775028987938</v>
+        <v>0.06460584681613567</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>150</v>
@@ -11910,19 +11910,19 @@
         <v>112508</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>95564</v>
+        <v>95471</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>131330</v>
+        <v>133983</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05651197471982679</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04800093031784523</v>
+        <v>0.047954214735596</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06596611510859929</v>
+        <v>0.06729878127438849</v>
       </c>
     </row>
     <row r="25">
@@ -11939,19 +11939,19 @@
         <v>41397</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30680</v>
+        <v>31466</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53023</v>
+        <v>54573</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03664525533030675</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02715847934247488</v>
+        <v>0.0278542952982643</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04693700323668627</v>
+        <v>0.04830963612332392</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -11960,19 +11960,19 @@
         <v>29362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21550</v>
+        <v>20889</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40286</v>
+        <v>39528</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03409334668612121</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02502310383429667</v>
+        <v>0.02425518169627095</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04677792971883172</v>
+        <v>0.04589759080707714</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -11981,19 +11981,19 @@
         <v>70758</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57959</v>
+        <v>56739</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>89557</v>
+        <v>86850</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0355413503587091</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02911250962217569</v>
+        <v>0.02849933800365339</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04498374623935476</v>
+        <v>0.04362412741342259</v>
       </c>
     </row>
     <row r="26">
@@ -12010,19 +12010,19 @@
         <v>13112</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7360</v>
+        <v>7318</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21903</v>
+        <v>21991</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01160675634010374</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006515004121158615</v>
+        <v>0.006477909881661459</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01938933727107744</v>
+        <v>0.01946707663016917</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -12031,19 +12031,19 @@
         <v>8229</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4274</v>
+        <v>4038</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13924</v>
+        <v>13818</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009554951033162173</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004963038192088138</v>
+        <v>0.00468817864334195</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01616801888390597</v>
+        <v>0.01604491808221635</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>27</v>
@@ -12052,19 +12052,19 @@
         <v>21341</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14158</v>
+        <v>13368</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31488</v>
+        <v>30367</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01071918613485992</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007111415635337947</v>
+        <v>0.006714859282606161</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01581612360318384</v>
+        <v>0.01525294198349683</v>
       </c>
     </row>
     <row r="27">
@@ -12156,19 +12156,19 @@
         <v>307044</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>279756</v>
+        <v>281120</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>332810</v>
+        <v>334165</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5406046315317812</v>
+        <v>0.540604631531781</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4925585655551398</v>
+        <v>0.4949607392742271</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.585969891095259</v>
+        <v>0.5883561606853731</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>680</v>
@@ -12177,19 +12177,19 @@
         <v>448865</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>426206</v>
+        <v>424837</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>472219</v>
+        <v>473054</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5422309319661692</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5148589903878951</v>
+        <v>0.5132050487272595</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5704433596405988</v>
+        <v>0.5714514092057138</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>957</v>
@@ -12198,19 +12198,19 @@
         <v>755909</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>722441</v>
+        <v>714823</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>794412</v>
+        <v>789636</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5415691638009805</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5175914847508654</v>
+        <v>0.5121334602745765</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5691544680257062</v>
+        <v>0.5657328012805209</v>
       </c>
     </row>
     <row r="29">
@@ -12227,19 +12227,19 @@
         <v>144660</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>124234</v>
+        <v>122308</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>168117</v>
+        <v>169449</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2546989030244765</v>
+        <v>0.2546989030244764</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.218735561698379</v>
+        <v>0.2153443362852519</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2959988428495797</v>
+        <v>0.2983443871053165</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>373</v>
@@ -12248,19 +12248,19 @@
         <v>228537</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>209886</v>
+        <v>209476</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>252991</v>
+        <v>249310</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2760732961327958</v>
+        <v>0.2760732961327957</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2535437773500752</v>
+        <v>0.2530476847309731</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3056142682606172</v>
+        <v>0.3011676226039668</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>525</v>
@@ -12269,19 +12269,19 @@
         <v>373196</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>342345</v>
+        <v>339806</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>403361</v>
+        <v>403927</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.267375707046413</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2452726202872912</v>
+        <v>0.2434533479824205</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2889871488865658</v>
+        <v>0.289392974312938</v>
       </c>
     </row>
     <row r="30">
@@ -12298,19 +12298,19 @@
         <v>56639</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42301</v>
+        <v>41832</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>74337</v>
+        <v>73733</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.09972208387413388</v>
+        <v>0.09972208387413387</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07447756388896687</v>
+        <v>0.07365201839515274</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1308826447275672</v>
+        <v>0.1298189807640897</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>139</v>
@@ -12319,19 +12319,19 @@
         <v>86740</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>72276</v>
+        <v>73310</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>103936</v>
+        <v>101029</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1047824987491027</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08731002526442104</v>
+        <v>0.08855906718925229</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1255558328324753</v>
+        <v>0.1220440901802894</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>197</v>
@@ -12340,19 +12340,19 @@
         <v>143379</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>123031</v>
+        <v>123292</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>165021</v>
+        <v>165805</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1027233334214113</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08814545269556534</v>
+        <v>0.08833195552269116</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1182290659048316</v>
+        <v>0.1187905595834593</v>
       </c>
     </row>
     <row r="31">
@@ -12369,19 +12369,19 @@
         <v>43839</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>32066</v>
+        <v>32190</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>63108</v>
+        <v>62690</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.07718630018639568</v>
+        <v>0.07718630018639566</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05645857271342517</v>
+        <v>0.05667605122917723</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.111113216735887</v>
+        <v>0.1103772768407927</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>73</v>
@@ -12390,19 +12390,19 @@
         <v>51252</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>39307</v>
+        <v>40233</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>64682</v>
+        <v>65912</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06191239821101242</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0474828253296464</v>
+        <v>0.04860188721728627</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07813567281534127</v>
+        <v>0.07962186112973649</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>114</v>
@@ -12411,19 +12411,19 @@
         <v>95091</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>78045</v>
+        <v>78667</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>118141</v>
+        <v>118620</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0681275979808654</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05591493551721297</v>
+        <v>0.05636058317215127</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08464202863146847</v>
+        <v>0.08498513608124879</v>
       </c>
     </row>
     <row r="32">
@@ -12440,19 +12440,19 @@
         <v>15783</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9395</v>
+        <v>9840</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>24380</v>
+        <v>25408</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02778808138321292</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01654183880369234</v>
+        <v>0.01732573117767056</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04292517387134612</v>
+        <v>0.04473560386221971</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -12461,19 +12461,19 @@
         <v>12418</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8026</v>
+        <v>7393</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>19005</v>
+        <v>18630</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01500087494091992</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.009694878966541752</v>
+        <v>0.008930664165084676</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02295766406259533</v>
+        <v>0.02250555129935191</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>39</v>
@@ -12482,19 +12482,19 @@
         <v>28201</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20357</v>
+        <v>20425</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>40856</v>
+        <v>38976</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02020419775032977</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01458461728510846</v>
+        <v>0.01463355461336242</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02927089534042971</v>
+        <v>0.02792400033731909</v>
       </c>
     </row>
     <row r="33">
@@ -12586,19 +12586,19 @@
         <v>188704</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>170052</v>
+        <v>167458</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>205135</v>
+        <v>204691</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7954559531634154</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7168296893101548</v>
+        <v>0.7058938787771918</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8647179501113107</v>
+        <v>0.8628429470666851</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>617</v>
@@ -12607,19 +12607,19 @@
         <v>476234</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>449059</v>
+        <v>446812</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>504772</v>
+        <v>503454</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.5656782160280656</v>
+        <v>0.5656782160280657</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5333991766382858</v>
+        <v>0.5307302044690179</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5995760338743656</v>
+        <v>0.5980099932045572</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>699</v>
@@ -12628,19 +12628,19 @@
         <v>664939</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>630486</v>
+        <v>629469</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>697904</v>
+        <v>698485</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.6161917435366419</v>
+        <v>0.6161917435366415</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5842649524574069</v>
+        <v>0.5833221507027548</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6467403990571594</v>
+        <v>0.6472784816327867</v>
       </c>
     </row>
     <row r="35">
@@ -12657,19 +12657,19 @@
         <v>40214</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>24774</v>
+        <v>26672</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>58875</v>
+        <v>62515</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1695161138876367</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1044312142457541</v>
+        <v>0.1124304577057595</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2481798890530403</v>
+        <v>0.263522848469684</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>381</v>
@@ -12678,19 +12678,19 @@
         <v>263649</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>236970</v>
+        <v>237610</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>289812</v>
+        <v>290589</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3131660764615057</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2814764108355173</v>
+        <v>0.282236631254402</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3442425227607065</v>
+        <v>0.3451658564477261</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>402</v>
@@ -12699,19 +12699,19 @@
         <v>303863</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>274592</v>
+        <v>271402</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>337337</v>
+        <v>334033</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2815865752158878</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2544618891474917</v>
+        <v>0.2515053909818273</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3126071215720445</v>
+        <v>0.3095451063158816</v>
       </c>
     </row>
     <row r="36">
@@ -12728,19 +12728,19 @@
         <v>4707</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1524</v>
+        <v>1539</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11628</v>
+        <v>11759</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.0198414072739696</v>
+        <v>0.01984140727396959</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.006422645344495332</v>
+        <v>0.006488133714534972</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04901759619308196</v>
+        <v>0.04956949659957932</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>98</v>
@@ -12749,19 +12749,19 @@
         <v>66242</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>53783</v>
+        <v>53208</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>81351</v>
+        <v>82112</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.07868365331690466</v>
+        <v>0.07868365331690465</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06388382911888577</v>
+        <v>0.06320170787048998</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09663011406963348</v>
+        <v>0.09753361388628443</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>103</v>
@@ -12770,19 +12770,19 @@
         <v>70949</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>57947</v>
+        <v>56890</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>89387</v>
+        <v>88151</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0657479814314889</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05369929937690974</v>
+        <v>0.05271965819714389</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0828336566672217</v>
+        <v>0.08168885272046451</v>
       </c>
     </row>
     <row r="37">
@@ -12799,19 +12799,19 @@
         <v>2677</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9197</v>
+        <v>9289</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01128330092623126</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.002153310878627397</v>
+        <v>0.002093083617236062</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03876929057193364</v>
+        <v>0.03915809330188473</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>46</v>
@@ -12820,19 +12820,19 @@
         <v>27726</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>20186</v>
+        <v>19830</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>37602</v>
+        <v>37466</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03293362846620189</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02397769939638882</v>
+        <v>0.02355377595246275</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04466451914159771</v>
+        <v>0.04450212260669387</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>49</v>
@@ -12841,19 +12841,19 @@
         <v>30403</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>22403</v>
+        <v>22970</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>40196</v>
+        <v>40973</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.02817409680140973</v>
+        <v>0.02817409680140972</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0207609353950279</v>
+        <v>0.02128603671307851</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03724879983598191</v>
+        <v>0.03796949353496266</v>
       </c>
     </row>
     <row r="38">
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>5136</v>
+        <v>4504</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.003903224748747072</v>
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02164886615527971</v>
+        <v>0.01898758801969777</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>14</v>
@@ -12891,19 +12891,19 @@
         <v>8030</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4549</v>
+        <v>4665</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14245</v>
+        <v>13047</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.009538425727322079</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.005403884203611669</v>
+        <v>0.005541093044817598</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01692052522440172</v>
+        <v>0.01549729453946624</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>15</v>
@@ -12912,19 +12912,19 @@
         <v>8956</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5113</v>
+        <v>4848</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>14510</v>
+        <v>14903</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.008299603014571938</v>
+        <v>0.008299603014571937</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.004737999478997684</v>
+        <v>0.00449226956047856</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01344645579047586</v>
+        <v>0.01381054814239291</v>
       </c>
     </row>
     <row r="39">
@@ -13016,19 +13016,19 @@
         <v>2138461</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2076674</v>
+        <v>2070367</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2199157</v>
+        <v>2192482</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.621833943613304</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.6038670768850578</v>
+        <v>0.6020330984661867</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6394833173726969</v>
+        <v>0.6375422516914711</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3084</v>
@@ -13037,19 +13037,19 @@
         <v>2222768</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2166191</v>
+        <v>2172019</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2269302</v>
+        <v>2275639</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6124545285034566</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5968654115467052</v>
+        <v>0.5984711083641731</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6252761224491906</v>
+        <v>0.6270222525490585</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4991</v>
@@ -13058,19 +13058,19 @@
         <v>4361230</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4285491</v>
+        <v>4278748</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4448209</v>
+        <v>4434521</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.617017960541017</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6063025615199632</v>
+        <v>0.6053486325028901</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6293235373563275</v>
+        <v>0.6273870891958632</v>
       </c>
     </row>
     <row r="41">
@@ -13087,19 +13087,19 @@
         <v>930749</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>875119</v>
+        <v>875804</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>986600</v>
+        <v>984298</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.270648509033685</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2544720854942353</v>
+        <v>0.2546711557599934</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2868892572498884</v>
+        <v>0.2862197466032978</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1523</v>
@@ -13108,19 +13108,19 @@
         <v>991574</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>947261</v>
+        <v>941889</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1044505</v>
+        <v>1035301</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2732151581444708</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2610052900054795</v>
+        <v>0.2595250715009575</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2877996346405687</v>
+        <v>0.2852634616399781</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2503</v>
@@ -13129,19 +13129,19 @@
         <v>1922323</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1848286</v>
+        <v>1853056</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1993301</v>
+        <v>1998086</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.2719663885096736</v>
+        <v>0.2719663885096735</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2614917213708833</v>
+        <v>0.2621665799246802</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2820082469734442</v>
+        <v>0.2826851857807214</v>
       </c>
     </row>
     <row r="42">
@@ -13158,19 +13158,19 @@
         <v>198902</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>173034</v>
+        <v>172811</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>227955</v>
+        <v>227213</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.05783773718980271</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05031585873802251</v>
+        <v>0.05025088363562246</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.06628591045057433</v>
+        <v>0.06607042310106225</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>373</v>
@@ -13179,19 +13179,19 @@
         <v>245602</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>220545</v>
+        <v>221340</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>274006</v>
+        <v>273283</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.06767234015062663</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0607682716594934</v>
+        <v>0.06098739171115692</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07549882891496415</v>
+        <v>0.07529958536938841</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>595</v>
@@ -13200,19 +13200,19 @@
         <v>444503</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>410172</v>
+        <v>406747</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>485440</v>
+        <v>484269</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.0628874424035388</v>
+        <v>0.06288744240353879</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05803029445149886</v>
+        <v>0.05754574368198736</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.06867905256291862</v>
+        <v>0.06851346182031402</v>
       </c>
     </row>
     <row r="43">
@@ -13229,19 +13229,19 @@
         <v>130247</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>109593</v>
+        <v>110843</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>154125</v>
+        <v>157322</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.03787397944638798</v>
+        <v>0.03787397944638797</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03186819171456332</v>
+        <v>0.03223141548393355</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04481725795638857</v>
+        <v>0.04574711887067529</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>195</v>
@@ -13250,19 +13250,19 @@
         <v>129984</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>112840</v>
+        <v>111643</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>149928</v>
+        <v>149846</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03581538288076683</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03109143830555994</v>
+        <v>0.03076171582688949</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0413105939400094</v>
+        <v>0.04128816570241129</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>336</v>
@@ -13271,19 +13271,19 @@
         <v>260231</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>231754</v>
+        <v>232631</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>292040</v>
+        <v>289369</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.03681696617886656</v>
+        <v>0.03681696617886655</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03278808369787604</v>
+        <v>0.03291211909862661</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04131720054806125</v>
+        <v>0.04093937637998676</v>
       </c>
     </row>
     <row r="44">
@@ -13300,19 +13300,19 @@
         <v>40600</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>29872</v>
+        <v>29572</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>53598</v>
+        <v>54330</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0118058307168204</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.00868640888969196</v>
+        <v>0.008599109581546223</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0155854134603087</v>
+        <v>0.01579845426205907</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>60</v>
@@ -13321,19 +13321,19 @@
         <v>39351</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>30410</v>
+        <v>29950</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>51154</v>
+        <v>52079</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01084259032067915</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008379099682958611</v>
+        <v>0.008252403283393137</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01409479663756621</v>
+        <v>0.01434957699991548</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>107</v>
@@ -13342,19 +13342,19 @@
         <v>79951</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>65527</v>
+        <v>64933</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>97770</v>
+        <v>97220</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01131124236690412</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.009270566217273627</v>
+        <v>0.009186649246478254</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01383234437846642</v>
+        <v>0.01375443321236149</v>
       </c>
     </row>
     <row r="45">
